--- a/processing_directory/results/classified_result.xlsx
+++ b/processing_directory/results/classified_result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,276 +503,276 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.761868188870941</v>
+        <v>1.988194501024752</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03007814322310518</v>
+        <v>0.001617299704222268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5748728230732391</v>
+        <v>0.06249739225211865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04310463093046736</v>
+        <v>0.04192521575004616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1544144866307244</v>
+        <v>0.07760773571285765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005541336467984947</v>
+        <v>0.003338225114432116</v>
       </c>
       <c r="G2" t="n">
-        <v>1.602746559642698</v>
+        <v>0.9844030209475577</v>
       </c>
       <c r="H2" t="n">
-        <v>1.581867054615002</v>
+        <v>0.7466732394955412</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2832959280267736</v>
+        <v>0.09586813625013677</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.784752318796296</v>
+        <v>1.983759317588233</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03105546434690715</v>
+        <v>0.002715916390953724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5693114649847552</v>
+        <v>0.0663746002999421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04065330463427293</v>
+        <v>0.04937837951889783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1562603775766014</v>
+        <v>0.06883625503101493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004907234781474226</v>
+        <v>0.003057736619303314</v>
       </c>
       <c r="G3" t="n">
-        <v>1.547097583746947</v>
+        <v>0.9767903745354983</v>
       </c>
       <c r="H3" t="n">
-        <v>1.621739825639932</v>
+        <v>0.7492344550984121</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2387085827318373</v>
+        <v>0.1042938274584583</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.809448024182265</v>
+        <v>1.993992807916761</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02798919928500585</v>
+        <v>0.002166592935075371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5373549327731005</v>
+        <v>0.0666113004425498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05075482146706832</v>
+        <v>0.04923883544770419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1366577633349726</v>
+        <v>0.08068413019115191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003089398851973586</v>
+        <v>0.00335400494868288</v>
       </c>
       <c r="G4" t="n">
-        <v>1.576872743278845</v>
+        <v>0.9622235260591738</v>
       </c>
       <c r="H4" t="n">
-        <v>1.586675297593573</v>
+        <v>0.7289888135867013</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2758105351383758</v>
+        <v>0.1095829353118404</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.794664076649497</v>
+        <v>1.980724254822342</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02767915840772158</v>
+        <v>0.01159725766259319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5203493921045167</v>
+        <v>0.08112393412072247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04391852685415357</v>
+        <v>0.0521529654496211</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1918561904884313</v>
+        <v>0.06805792433723395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005499318748199979</v>
+        <v>0.003036480726668391</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64436618121384</v>
+        <v>0.9459506127297186</v>
       </c>
       <c r="H5" t="n">
-        <v>1.555186242271275</v>
+        <v>0.7282775254584819</v>
       </c>
       <c r="I5" t="n">
-        <v>0.218204269865006</v>
+        <v>0.1341529110101534</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.779602347499756</v>
+        <v>1.998279790734652</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03003421844428137</v>
+        <v>0.0008102694452119048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5475131368753822</v>
+        <v>0.071508198405715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03902445911733377</v>
+        <v>0.04144149339452163</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1960749711508692</v>
+        <v>0.06695439072124917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004918439242098367</v>
+        <v>0.002736745389931155</v>
       </c>
       <c r="G6" t="n">
-        <v>1.642607354779919</v>
+        <v>0.9580089895370955</v>
       </c>
       <c r="H6" t="n">
-        <v>1.539115330747482</v>
+        <v>0.7504766790356531</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2294019954831118</v>
+        <v>0.1037171124453208</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.820274379786661</v>
+        <v>1.989320732437793</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01609794189855028</v>
+        <v>0.0008178032504103402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4867305309731355</v>
+        <v>0.08925545907767214</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05526491553700876</v>
+        <v>0.02463771135668098</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1717938372777977</v>
+        <v>0.07757709893690769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006645466365462735</v>
+        <v>0.002762191378012398</v>
       </c>
       <c r="G7" t="n">
-        <v>1.710856132337484</v>
+        <v>0.9696173463863733</v>
       </c>
       <c r="H7" t="n">
-        <v>1.508578706708344</v>
+        <v>0.7430896893019584</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2281859952402488</v>
+        <v>0.1067891443846515</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -797,31 +797,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.753131813117348</v>
+        <v>1.911921063116368</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01808184441948408</v>
+        <v>0.01472038672677846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6128976051617516</v>
+        <v>0.1450188821375677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03915723658240119</v>
+        <v>0.0008925066585796658</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2095333819105372</v>
+        <v>0.2684299058488477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006785864004032196</v>
+        <v>0.01593564178201137</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66556848105779</v>
+        <v>0.7965491276044894</v>
       </c>
       <c r="H8" t="n">
-        <v>1.464754311881257</v>
+        <v>0.8269005117451711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.259837932878742</v>
+        <v>0.03574932922434869</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.749097856975966</v>
+        <v>1.893049551815701</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0331884317879156</v>
+        <v>0.01366095408564816</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5855642552423181</v>
+        <v>0.1177076381540933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04002480924405369</v>
+        <v>1e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.198379473001005</v>
+        <v>0.2663899753164103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006738034962022564</v>
+        <v>0.01358592864012325</v>
       </c>
       <c r="G9" t="n">
-        <v>1.591298304443205</v>
+        <v>0.7658573948162167</v>
       </c>
       <c r="H9" t="n">
-        <v>1.595456499556531</v>
+        <v>0.8625477411457378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2103313924818127</v>
+        <v>0.06968179681896616</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -895,80 +895,80 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.834589130635258</v>
+        <v>1.931508157618943</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007640377677397329</v>
+        <v>0.008804867360613929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3770390262942582</v>
+        <v>0.06718912661925153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04014756088962606</v>
+        <v>1e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1789677586612011</v>
+        <v>0.292373564589554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005529845263954574</v>
+        <v>0.01240727842202133</v>
       </c>
       <c r="G10" t="n">
-        <v>1.735682057336682</v>
+        <v>0.8340991404531602</v>
       </c>
       <c r="H10" t="n">
-        <v>1.697505341941128</v>
+        <v>0.8555457143102986</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1406509703381525</v>
+        <v>0.03952854468363477</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.736665108728136</v>
+        <v>1.833989622271395</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02818164797553423</v>
+        <v>0.01796197541322352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.533191982212863</v>
+        <v>0.1745597437368119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05353838047571455</v>
+        <v>1e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1807383397654888</v>
+        <v>0.3106781847331588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005491477768489693</v>
+        <v>0.01357315942279961</v>
       </c>
       <c r="G11" t="n">
-        <v>1.673165269744123</v>
+        <v>0.7359872019179901</v>
       </c>
       <c r="H11" t="n">
-        <v>1.623979347062264</v>
+        <v>0.943480006164817</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2067191443871697</v>
+        <v>0.0517847593986552</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -993,178 +993,178 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.81909041952402</v>
+        <v>1.899237501220591</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02132293291879191</v>
+        <v>0.02473760079678686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4376875145101364</v>
+        <v>0.1910981755221147</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05458587457430203</v>
+        <v>0.00239057649605814</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1811192409739179</v>
+        <v>0.3205105068744538</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00677109172463702</v>
+        <v>0.008963549760405943</v>
       </c>
       <c r="G12" t="n">
-        <v>1.642441389631062</v>
+        <v>0.7803625935348264</v>
       </c>
       <c r="H12" t="n">
-        <v>1.642996026640181</v>
+        <v>0.7228501390286955</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2113632771411871</v>
+        <v>0.04909859540833395</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.776984218901927</v>
+        <v>1.872029647141474</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03539747348377354</v>
+        <v>0.04594913675767547</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5705044393161269</v>
+        <v>0.2186525606218861</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04114580123004413</v>
+        <v>1e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1597824644687779</v>
+        <v>0.2649728996102627</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006038262760216115</v>
+        <v>0.007113178926136795</v>
       </c>
       <c r="G13" t="n">
-        <v>1.604773051276276</v>
+        <v>0.7488961694577002</v>
       </c>
       <c r="H13" t="n">
-        <v>1.561280535052597</v>
+        <v>0.7877445027121494</v>
       </c>
       <c r="I13" t="n">
-        <v>0.246039181260849</v>
+        <v>0.04736889887734805</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.800856217315945</v>
+        <v>1.915671855570181</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02525108410909363</v>
+        <v>0.02050792530907185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5228615432727818</v>
+        <v>0.1949680811748256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04672846874278767</v>
+        <v>0.002657147789855595</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1830667381112667</v>
+        <v>0.2517096701483491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00370814856361725</v>
+        <v>0.006009469649293566</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6370692183541</v>
+        <v>0.7782414967558253</v>
       </c>
       <c r="H14" t="n">
-        <v>1.542485202129471</v>
+        <v>0.7725967287240866</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2447508683098344</v>
+        <v>0.03909746216490266</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.774905498904676</v>
+        <v>1.944425101450296</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0289183380296161</v>
+        <v>0.02860392354277109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5721697180070084</v>
+        <v>0.1169572209078219</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04333558158049384</v>
+        <v>0.001803645543093313</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1809752334501317</v>
+        <v>0.2556510901967741</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007235099271921375</v>
+        <v>0.00772895054623707</v>
       </c>
       <c r="G15" t="n">
-        <v>1.666048225511301</v>
+        <v>0.8071308435218885</v>
       </c>
       <c r="H15" t="n">
-        <v>1.486493907209293</v>
+        <v>0.7890907518592275</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2498124543687278</v>
+        <v>0.02948774356607661</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1189,31 +1189,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.762529818846677</v>
+        <v>1.986606494736215</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02597367174143401</v>
+        <v>0.0008163900263178726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5497562042376288</v>
+        <v>0.05286388118121163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.040654428814088</v>
+        <v>0.03946661290996503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1898278639568814</v>
+        <v>0.05566218500800509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004977475773089942</v>
+        <v>3.063797898223161e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.642612390747574</v>
+        <v>0.9366656632750279</v>
       </c>
       <c r="H16" t="n">
-        <v>1.596942433172061</v>
+        <v>0.8557506328188276</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2036701899290963</v>
+        <v>0.07714806933439243</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1238,80 +1238,80 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.765387886358384</v>
+        <v>1.993304033157236</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03323007532648922</v>
+        <v>0.005076970002389409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5615498411030021</v>
+        <v>0.09669942699839797</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04064753124011764</v>
+        <v>0.0213421870920043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1786444377105012</v>
+        <v>0.1149550231467897</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005519855113542344</v>
+        <v>0.003008393728466476</v>
       </c>
       <c r="G17" t="n">
-        <v>1.610566493500824</v>
+        <v>1.085458448611215</v>
       </c>
       <c r="H17" t="n">
-        <v>1.574183159429986</v>
+        <v>0.570078331619928</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2541183383666448</v>
+        <v>0.1019221680158817</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.78634942582827</v>
+        <v>1.987259852214297</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03722810161987562</v>
+        <v>0.001902073197958444</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5806461770922091</v>
+        <v>0.072792430538036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03624740009433656</v>
+        <v>0.05654168025144737</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1551915784131956</v>
+        <v>0.0589019657893998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004931007274675982</v>
+        <v>0.0006118470351154692</v>
       </c>
       <c r="G18" t="n">
-        <v>1.524216462932912</v>
+        <v>0.9121178141399903</v>
       </c>
       <c r="H18" t="n">
-        <v>1.599967123253856</v>
+        <v>0.7956535787867689</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2793721496791174</v>
+        <v>0.1155497663076253</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1336,472 +1336,472 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.7771655965817</v>
+        <v>1.986609097992567</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03153091923375972</v>
+        <v>0.002168750178309125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5680615530350147</v>
+        <v>0.0989546908238198</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0468486224156299</v>
+        <v>0.06552721510742783</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1673995936347165</v>
+        <v>0.05695703022387814</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003672345784147789</v>
+        <v>0.001526065672627281</v>
       </c>
       <c r="G19" t="n">
-        <v>1.601872526414113</v>
+        <v>0.8874378129359599</v>
       </c>
       <c r="H19" t="n">
-        <v>1.559336443582469</v>
+        <v>0.7536523859999752</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2535964412233926</v>
+        <v>0.1488178704479493</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.798171450196584</v>
+        <v>1.987695003961892</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02784768640035877</v>
+        <v>0.002991801730519984</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4927224508098276</v>
+        <v>0.09416582635437817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06369660076134934</v>
+        <v>0.03944514386352246</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1638885826912713</v>
+        <v>0.06530701996361227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005532802033199266</v>
+        <v>0.002449705002856347</v>
       </c>
       <c r="G20" t="n">
-        <v>1.645722108304648</v>
+        <v>0.9167539362183122</v>
       </c>
       <c r="H20" t="n">
-        <v>1.584096727392272</v>
+        <v>0.7685170658082624</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2223473571629292</v>
+        <v>0.1268745865625932</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.81525991238318</v>
+        <v>1.99541280482644</v>
       </c>
       <c r="B21" t="n">
-        <v>0.013561929729422</v>
+        <v>0.00270968060841811</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4810152403202096</v>
+        <v>0.1337179104625651</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06784264578252074</v>
+        <v>0.06151006536910363</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1230205431988301</v>
+        <v>0.07259406863719485</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003053761838928312</v>
+        <v>0.002135501208874334</v>
       </c>
       <c r="G21" t="n">
-        <v>1.57695732500169</v>
+        <v>0.848366549300996</v>
       </c>
       <c r="H21" t="n">
-        <v>1.700486732718565</v>
+        <v>0.6923285899274466</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2195012889309586</v>
+        <v>0.1857614880245545</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.838803925732361</v>
+        <v>1.996672904919877</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006589752731115886</v>
+        <v>2.704557146574405e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3269131525266964</v>
+        <v>0.07796055276739539</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05771147932532071</v>
+        <v>0.0389395621288772</v>
       </c>
       <c r="E22" t="n">
-        <v>0.133689709427898</v>
+        <v>0.05652232312245836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004327824000044631</v>
+        <v>0.002131463404962366</v>
       </c>
       <c r="G22" t="n">
-        <v>1.757392405263685</v>
+        <v>0.9292950019609959</v>
       </c>
       <c r="H22" t="n">
-        <v>1.784741149771209</v>
+        <v>0.7896265596374412</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1019004989342311</v>
+        <v>0.1045546524571203</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.825689943199614</v>
+        <v>1.989026384843437</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01807709972962716</v>
+        <v>0.005291225277545722</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4616980221757527</v>
+        <v>0.1268260911524278</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0731127078686705</v>
+        <v>0.06478232219591354</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1912099350573951</v>
+        <v>0.06911305822053992</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004933878827714982</v>
+        <v>0.002382867653220119</v>
       </c>
       <c r="G23" t="n">
-        <v>1.618455651240608</v>
+        <v>0.8398410806365184</v>
       </c>
       <c r="H23" t="n">
-        <v>1.56189060115564</v>
+        <v>0.714768346900588</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2640051275840332</v>
+        <v>0.1956879549656667</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.786071821221125</v>
+        <v>1.985699933793682</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02779083767123682</v>
+        <v>2.714127899745378e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5096437666952084</v>
+        <v>0.1028979208909186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05612183610297551</v>
+        <v>0.05020157136308151</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1732461077638293</v>
+        <v>0.06517034983859971</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006135008088130475</v>
+        <v>0.002750150728700794</v>
       </c>
       <c r="G24" t="n">
-        <v>1.693112693024046</v>
+        <v>0.9024655068198945</v>
       </c>
       <c r="H24" t="n">
-        <v>1.533522406415247</v>
+        <v>0.7545392689339611</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2317241762052774</v>
+        <v>0.1433970152353252</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.794505288098628</v>
+        <v>1.979725271525965</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03045521921736566</v>
+        <v>0.0008103162217982137</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5708334706922069</v>
+        <v>0.1040948658661026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05029568288446435</v>
+        <v>0.04541795703911158</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1577902637285226</v>
+        <v>0.07446478691503237</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006122903025609514</v>
+        <v>0.002736903381334748</v>
       </c>
       <c r="G25" t="n">
-        <v>1.591704866358567</v>
+        <v>0.9088230016999682</v>
       </c>
       <c r="H25" t="n">
-        <v>1.533594765085099</v>
+        <v>0.7570596450481981</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2536928451487063</v>
+        <v>0.1385295093957323</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.859880852827386</v>
+        <v>1.990888639439565</v>
       </c>
       <c r="B26" t="n">
-        <v>0.005405464360731497</v>
+        <v>0.002993342015372965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3124786134066908</v>
+        <v>0.1095614330445568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03976540247239927</v>
+        <v>0.05805425128460332</v>
       </c>
       <c r="E26" t="n">
-        <v>0.171255236600689</v>
+        <v>0.06685315718496818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004868628909255491</v>
+        <v>0.003676449295845279</v>
       </c>
       <c r="G26" t="n">
-        <v>1.813419628598915</v>
+        <v>0.8778623086678433</v>
       </c>
       <c r="H26" t="n">
-        <v>1.69905354503949</v>
+        <v>0.7305446005393252</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1003047375775759</v>
+        <v>0.1620061784601707</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.826384204491498</v>
+        <v>1.983845607136869</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004368157345916961</v>
+        <v>0.002467330778390685</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3626895709231726</v>
+        <v>0.09706311624444874</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04361101686438823</v>
+        <v>0.05992699984014017</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1857358360616185</v>
+        <v>0.06186526771134205</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005532666270572696</v>
+        <v>0.003703819306636819</v>
       </c>
       <c r="G27" t="n">
-        <v>1.807977754153746</v>
+        <v>0.8903733782086861</v>
       </c>
       <c r="H27" t="n">
-        <v>1.666487966597364</v>
+        <v>0.7625333355512836</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1196143139660315</v>
+        <v>0.1427224123230903</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.75615443742124</v>
+        <v>1.988452454568615</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02838883885322464</v>
+        <v>0.00136739189827814</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5345461766996051</v>
+        <v>0.1002535545687979</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06311190730184583</v>
+        <v>0.04627252600362754</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2360803710496604</v>
+        <v>0.07296258824518699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.006761151217911842</v>
+        <v>0.002463182913424219</v>
       </c>
       <c r="G28" t="n">
-        <v>1.663830063579137</v>
+        <v>0.8887409512098706</v>
       </c>
       <c r="H28" t="n">
-        <v>1.51462444840436</v>
+        <v>0.765345048856065</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2180880781623591</v>
+        <v>0.1374401279275654</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1826,129 +1826,129 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.779315811984101</v>
+        <v>1.988990139321712</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0342423945638641</v>
+        <v>0.003255252880484906</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5739108014946519</v>
+        <v>0.1041191213600273</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03712883038001714</v>
+        <v>0.04760957350760889</v>
       </c>
       <c r="E29" t="n">
-        <v>0.194556363981185</v>
+        <v>0.06634254969793808</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00673131541496872</v>
+        <v>0.00122165100159262</v>
       </c>
       <c r="G29" t="n">
-        <v>1.603712895291119</v>
+        <v>0.8928560877522057</v>
       </c>
       <c r="H29" t="n">
-        <v>1.52806718817128</v>
+        <v>0.7529862558974827</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2395386675472566</v>
+        <v>0.1461186709093286</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.842930497712837</v>
+        <v>1.977786107762643</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02614375508792569</v>
+        <v>0.008375698827648244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4582072316046108</v>
+        <v>0.1117439991430544</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03033730045297982</v>
+        <v>0.05792470894922825</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1665042850443107</v>
+        <v>0.06667734907944284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004905693314953609</v>
+        <v>0.00334607539337331</v>
       </c>
       <c r="G30" t="n">
-        <v>1.629716348535892</v>
+        <v>0.878034443445146</v>
       </c>
       <c r="H30" t="n">
-        <v>1.597959152965343</v>
+        <v>0.7403484146729837</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2540745969052972</v>
+        <v>0.1643339533358108</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.742547380273227</v>
+        <v>1.991503482842805</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03686119308073092</v>
+        <v>0.002964108365772111</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5961540677381816</v>
+        <v>0.0747197796795913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04215669239976935</v>
+        <v>0.02208870874187234</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2199476526486082</v>
+        <v>0.1039433856404017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.007323613211207062</v>
+        <v>0.005460816400958871</v>
       </c>
       <c r="G31" t="n">
-        <v>1.661724927244965</v>
+        <v>1.040156507145456</v>
       </c>
       <c r="H31" t="n">
-        <v>1.472254506813541</v>
+        <v>0.6712169664309779</v>
       </c>
       <c r="I31" t="n">
-        <v>0.240295071457971</v>
+        <v>0.0861150421326865</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1973,325 +1973,325 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.792083723321402</v>
+        <v>1.986440699585819</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03702828048884733</v>
+        <v>0.006749834143288365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5596150631293592</v>
+        <v>0.09474625122901123</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04292005102403586</v>
+        <v>0.04312916149761693</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1900729311117557</v>
+        <v>0.09094141621718098</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006130675233039822</v>
+        <v>0.003951665026769347</v>
       </c>
       <c r="G32" t="n">
-        <v>1.579697950538402</v>
+        <v>1.009562798503354</v>
       </c>
       <c r="H32" t="n">
-        <v>1.520806464969688</v>
+        <v>0.6325439690706549</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2778726249518914</v>
+        <v>0.1349928492797298</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.79770167358551</v>
+        <v>1.980084933832774</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01860193012954981</v>
+        <v>0.009109259160584693</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4894137023554445</v>
+        <v>0.1082891067389284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04599847279339474</v>
+        <v>0.01745702221380803</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1775938552077609</v>
+        <v>0.1146649965452668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00615974551485409</v>
+        <v>0.003016392270440865</v>
       </c>
       <c r="G33" t="n">
-        <v>1.690182313339748</v>
+        <v>0.9688919678966879</v>
       </c>
       <c r="H33" t="n">
-        <v>1.598925292524464</v>
+        <v>0.6776708840258149</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1804866161678112</v>
+        <v>0.1311939122989821</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.888628198698858</v>
+        <v>1.978309744953041</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004370408641845925</v>
+        <v>0.01235769495201091</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2456263079619114</v>
+        <v>0.09048550678239609</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0373181194062837</v>
+        <v>0.01976296096770291</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1384627325338122</v>
+        <v>0.115871693999085</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005535517740440854</v>
+        <v>0.003327024524751559</v>
       </c>
       <c r="G34" t="n">
-        <v>1.799166783795849</v>
+        <v>1.033801624425478</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799614220484134</v>
+        <v>0.6458383134656804</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09010895943489353</v>
+        <v>0.1031624977246189</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.714360868948015</v>
+        <v>1.981570595780553</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03592256008239615</v>
+        <v>0.0008152111553331211</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5857887214598293</v>
+        <v>0.1094064450914236</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03946814990950485</v>
+        <v>0.05825770347335953</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1839343829429447</v>
+        <v>0.06434198490296003</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00490226754509113</v>
+        <v>0.002141561631892891</v>
       </c>
       <c r="G35" t="n">
-        <v>1.627499747682641</v>
+        <v>0.8943897995835732</v>
       </c>
       <c r="H35" t="n">
-        <v>1.634051255861674</v>
+        <v>0.7415084221815381</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2188285002662125</v>
+        <v>0.160376334369585</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.791628106574511</v>
+        <v>1.982134793347501</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02150371982340595</v>
+        <v>0.008934048515391488</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4758422207889537</v>
+        <v>0.1115452392903612</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03050855901400794</v>
+        <v>0.06373187843087928</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1936264145640577</v>
+        <v>0.08035476213193608</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0072630415031492</v>
+        <v>0.002438417305604901</v>
       </c>
       <c r="G36" t="n">
-        <v>1.681004771904021</v>
+        <v>0.8932169387616982</v>
       </c>
       <c r="H36" t="n">
-        <v>1.640769207010541</v>
+        <v>0.6990430061414454</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1773452302572958</v>
+        <v>0.1597812411272009</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.900059529568356</v>
+        <v>1.975244007723173</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006007904636229284</v>
+        <v>2.721593277392583e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2635372356658784</v>
+        <v>0.07418795436443824</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0734707797428807</v>
+        <v>0.04433321793069049</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1627163265497177</v>
+        <v>0.05839108219210931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004304394458087858</v>
+        <v>0.00214488959174015</v>
       </c>
       <c r="G37" t="n">
-        <v>1.773853073196092</v>
+        <v>0.9556421284719993</v>
       </c>
       <c r="H37" t="n">
-        <v>1.630396926153582</v>
+        <v>0.8042907033727535</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2209967764941391</v>
+        <v>0.09960187388241483</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.807509160884843</v>
+        <v>1.972986990387259</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0288181550396584</v>
+        <v>0.003539863414633939</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5162069559439429</v>
+        <v>0.127548473543758</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0537146180044504</v>
+        <v>0.0732584038744639</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1426488578316928</v>
+        <v>0.06144763643532903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.007346072804677821</v>
+        <v>0.002452544059005679</v>
       </c>
       <c r="G38" t="n">
-        <v>1.570927613519001</v>
+        <v>0.8347219085341158</v>
       </c>
       <c r="H38" t="n">
-        <v>1.615386065311637</v>
+        <v>0.7453637378740486</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2676576203273721</v>
+        <v>0.2000064282128873</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2316,570 +2316,570 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.764501958639781</v>
+        <v>1.98321515132602</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03834512321425088</v>
+        <v>2.747673437810312e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5801225107241019</v>
+        <v>0.07834250025628171</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04720633500196988</v>
+        <v>0.0412929097406168</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1674598829237535</v>
+        <v>0.06444861109120043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.006167309958144242</v>
+        <v>0.001856094329707096</v>
       </c>
       <c r="G39" t="n">
-        <v>1.547889552476806</v>
+        <v>0.9364873344343968</v>
       </c>
       <c r="H39" t="n">
-        <v>1.599328523863259</v>
+        <v>0.8010408837128321</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2625916929479107</v>
+        <v>0.1005563268752031</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.812656727004314</v>
+        <v>1.976140323097632</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01208394199400785</v>
+        <v>0.001080228326105708</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4388509587625979</v>
+        <v>0.06684571627703446</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06176522997573615</v>
+        <v>0.0499508142251745</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1355516839971574</v>
+        <v>0.05763984316982285</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005565601901663663</v>
+        <v>0.002432367742205968</v>
       </c>
       <c r="G40" t="n">
-        <v>1.720783237443861</v>
+        <v>0.9498658482679598</v>
       </c>
       <c r="H40" t="n">
-        <v>1.626343074428211</v>
+        <v>0.8084627339454534</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2180030718318105</v>
+        <v>0.1016165315246553</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.808787538145253</v>
+        <v>1.989817674118585</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02002625066655881</v>
+        <v>0.0005484351716303225</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4570330568022514</v>
+        <v>0.08334085609468125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07053325771481159</v>
+        <v>0.04351576115587714</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1702747891392972</v>
+        <v>0.06340516394068528</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004874965976996626</v>
+        <v>0.002469840843692612</v>
       </c>
       <c r="G41" t="n">
-        <v>1.624871055565104</v>
+        <v>0.9199423387872034</v>
       </c>
       <c r="H41" t="n">
-        <v>1.636513688290598</v>
+        <v>0.7775678352057982</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2231895454831371</v>
+        <v>0.1265040050635521</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.749042045412429</v>
+        <v>1.991300835865064</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0317640732484657</v>
+        <v>2.73370363860549e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5808417006235292</v>
+        <v>0.08822254370095597</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04086400023259364</v>
+        <v>0.04079567368139312</v>
       </c>
       <c r="E42" t="n">
-        <v>0.186292604104042</v>
+        <v>0.06807151885443316</v>
       </c>
       <c r="F42" t="n">
-        <v>0.006165834642951062</v>
+        <v>0.002462210029713436</v>
       </c>
       <c r="G42" t="n">
-        <v>1.633251407207384</v>
+        <v>0.9154749837592159</v>
       </c>
       <c r="H42" t="n">
-        <v>1.556047390327057</v>
+        <v>0.7732187899122522</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2399457477818975</v>
+        <v>0.1275222441828361</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.771323307544765</v>
+        <v>1.975117739419003</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03787315078964964</v>
+        <v>0.001891139010631768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5554894160578976</v>
+        <v>0.0981915968001497</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04210944722458879</v>
+        <v>0.06274686340193314</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1488806185194632</v>
+        <v>0.06306823830136386</v>
       </c>
       <c r="F43" t="n">
-        <v>0.006179680536731344</v>
+        <v>0.001824989381935756</v>
       </c>
       <c r="G43" t="n">
-        <v>1.572747433124566</v>
+        <v>0.9004503074330322</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622079633960056</v>
+        <v>0.7587593367534368</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2659476375688172</v>
+        <v>0.1580546261543665</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.788282403314423</v>
+        <v>1.984729125311873</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02774866807276074</v>
+        <v>0.001374632342097005</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513132333711949</v>
+        <v>0.07106592642242568</v>
       </c>
       <c r="D44" t="n">
-        <v>0.04745963483099744</v>
+        <v>0.03669396212673368</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2044347210249904</v>
+        <v>0.07151520741709562</v>
       </c>
       <c r="F44" t="n">
-        <v>0.006125698875116296</v>
+        <v>0.001857169240338508</v>
       </c>
       <c r="G44" t="n">
-        <v>1.646339312688563</v>
+        <v>0.9501045103749046</v>
       </c>
       <c r="H44" t="n">
-        <v>1.56219131092233</v>
+        <v>0.7948484204333395</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2089364327557467</v>
+        <v>0.09565468880528541</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.794162348030997</v>
+        <v>1.97281812449816</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03502300567126449</v>
+        <v>0.002147462355552323</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6043986447047817</v>
+        <v>0.09419861451629018</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03968230266819312</v>
+        <v>0.08011765820460179</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1569492115223977</v>
+        <v>0.06893083576403218</v>
       </c>
       <c r="F45" t="n">
-        <v>0.006777192224106188</v>
+        <v>0.002417738007333073</v>
       </c>
       <c r="G45" t="n">
-        <v>1.545242522379968</v>
+        <v>0.9026632483793109</v>
       </c>
       <c r="H45" t="n">
-        <v>1.524452915344613</v>
+        <v>0.7324918577272608</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2806612519761222</v>
+        <v>0.1618852838961533</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.763560999300938</v>
+        <v>1.981693360904897</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03242626477719398</v>
+        <v>0.0005366601235122829</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5655656976940531</v>
+        <v>0.09500330066726541</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05452444345694694</v>
+        <v>0.052451342545588</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1718215763828923</v>
+        <v>0.06741301662444821</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003650737466245537</v>
+        <v>0.002114711119374651</v>
       </c>
       <c r="G46" t="n">
-        <v>1.594588830986651</v>
+        <v>0.9081666358852577</v>
       </c>
       <c r="H46" t="n">
-        <v>1.582488303731567</v>
+        <v>0.7616375608829535</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2437472161045519</v>
+        <v>0.1466091692407408</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.725838583153692</v>
+        <v>1.996527877569808</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03817280467065808</v>
+        <v>0.005501838586498727</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6424432862667836</v>
+        <v>0.1284266155374168</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0383976960769682</v>
+        <v>0.03382501867184752</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1776190906073233</v>
+        <v>0.1256856405615683</v>
       </c>
       <c r="F47" t="n">
-        <v>0.006753554259462257</v>
+        <v>0.002787430430097472</v>
       </c>
       <c r="G47" t="n">
-        <v>1.576593267838447</v>
+        <v>0.8154884015373639</v>
       </c>
       <c r="H47" t="n">
-        <v>1.544765414022294</v>
+        <v>0.7095255250861451</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2853040976673318</v>
+        <v>0.1963873724492467</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.726092326244348</v>
+        <v>1.812122739214183</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04336747874061055</v>
+        <v>0.03097712684413607</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6080623784479803</v>
+        <v>0.3781770651013301</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03532158721295117</v>
+        <v>0.0004399301719393503</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1789767544639778</v>
+        <v>0.2331380351758522</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04150178519215688</v>
+        <v>0.004555854397056091</v>
       </c>
       <c r="G48" t="n">
-        <v>1.58121287934168</v>
+        <v>0.7797324594173843</v>
       </c>
       <c r="H48" t="n">
-        <v>1.537153263822769</v>
+        <v>0.6746828370969418</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3073638655130732</v>
+        <v>0.107526445423109</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.842541277928155</v>
+        <v>1.99594390918029</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01376819761239055</v>
+        <v>0.009198761938788595</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4374273822795284</v>
+        <v>0.1072338523195666</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09723456996950038</v>
+        <v>0.006255290413551493</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1457068706367295</v>
+        <v>0.1714317703380077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001860124508756058</v>
+        <v>0.003655235700814979</v>
       </c>
       <c r="G49" t="n">
-        <v>1.644593919399118</v>
+        <v>1.034703974737442</v>
       </c>
       <c r="H49" t="n">
-        <v>1.549871693686621</v>
+        <v>0.551008405881583</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2867110246282864</v>
+        <v>0.1164455442334923</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.756047980235579</v>
+        <v>1.990634130274268</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03389310850477342</v>
+        <v>0.002194238866902345</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6114752011526083</v>
+        <v>0.05457057901302186</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04021537164539307</v>
+        <v>0.02680718423829929</v>
       </c>
       <c r="E50" t="n">
-        <v>0.187170077754936</v>
+        <v>0.09451954060638031</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002461860170095254</v>
+        <v>0.002779201939654909</v>
       </c>
       <c r="G50" t="n">
-        <v>1.676868531185495</v>
+        <v>1.070701690890348</v>
       </c>
       <c r="H50" t="n">
-        <v>1.454347901488738</v>
+        <v>0.6914151750631401</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2352838537358202</v>
+        <v>0.06432669670429826</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2904,80 +2904,80 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.735378924587432</v>
+        <v>1.960194639647376</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03562009861802951</v>
+        <v>0.007925280068825676</v>
       </c>
       <c r="C51" t="n">
-        <v>0.648171060608024</v>
+        <v>0.1374609070704866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03685836521008378</v>
+        <v>0.003569539295776644</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2059038432697291</v>
+        <v>0.298913950494884</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004935775820371795</v>
+        <v>0.003824031944019316</v>
       </c>
       <c r="G51" t="n">
-        <v>1.675544755537504</v>
+        <v>0.6842656888806234</v>
       </c>
       <c r="H51" t="n">
-        <v>1.432153450597895</v>
+        <v>0.8102599425283172</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2203242500511294</v>
+        <v>0.1094217830860231</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.708811718749451</v>
+        <v>1.83434406227958</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03822892071561215</v>
+        <v>0.02443442901915865</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6681992061391052</v>
+        <v>0.3610426760445904</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03501048815188584</v>
+        <v>0.0005836115154311722</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1942718908716418</v>
+        <v>0.2068046584079459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0184458609326527</v>
+        <v>0.003438712649278771</v>
       </c>
       <c r="G52" t="n">
-        <v>1.636266858469905</v>
+        <v>0.8473222084225968</v>
       </c>
       <c r="H52" t="n">
-        <v>1.480145842545161</v>
+        <v>0.6287650181179484</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2392758456486862</v>
+        <v>0.1073412684772598</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3002,31 +3002,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.811425240969971</v>
+        <v>1.976549290585092</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01792101223574147</v>
+        <v>0.0005673299896657643</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5283249504693079</v>
+        <v>0.03777335809585992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03995038514730012</v>
+        <v>0.001788674560316454</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1430747297609365</v>
+        <v>0.315965350230399</v>
       </c>
       <c r="F53" t="n">
-        <v>0.007336915558658285</v>
+        <v>0.008942263342757486</v>
       </c>
       <c r="G53" t="n">
-        <v>1.608785469146758</v>
+        <v>0.6812659942571876</v>
       </c>
       <c r="H53" t="n">
-        <v>1.618786407402096</v>
+        <v>0.958683401745005</v>
       </c>
       <c r="I53" t="n">
-        <v>0.218337903635189</v>
+        <v>0.04313340058174354</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3051,31 +3051,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.66901871648272</v>
+        <v>1.894333335924585</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03500884381989237</v>
+        <v>0.01820111659092348</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5990125126464182</v>
+        <v>0.2574776448195178</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04541498965845814</v>
+        <v>0.03111888738260365</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2395852117087516</v>
+        <v>0.09950101358700325</v>
       </c>
       <c r="F54" t="n">
-        <v>0.008006170319214618</v>
+        <v>0.002140942222589926</v>
       </c>
       <c r="G54" t="n">
-        <v>1.772245560532832</v>
+        <v>0.860217651113292</v>
       </c>
       <c r="H54" t="n">
-        <v>1.526173662322761</v>
+        <v>0.70105670371677</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1550766535793154</v>
+        <v>0.158229555979581</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3100,766 +3100,766 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.706010372480838</v>
+        <v>2.12597912590467</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02715816883248496</v>
+        <v>0.01800495172438562</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5522504782590496</v>
+        <v>0.0497203541352624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04680784704475342</v>
+        <v>1e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2475599167809778</v>
+        <v>0.9447406090261653</v>
       </c>
       <c r="F55" t="n">
-        <v>0.009172873763225444</v>
+        <v>0.03195262749508918</v>
       </c>
       <c r="G55" t="n">
-        <v>1.768383234271503</v>
+        <v>0.0199554826086345</v>
       </c>
       <c r="H55" t="n">
-        <v>1.537866313022146</v>
+        <v>0.1316904562669493</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1441861831595981</v>
+        <v>0.9335694035532502</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.752129552581048</v>
+        <v>2.138669346626756</v>
       </c>
       <c r="B56" t="n">
-        <v>0.009350508129075766</v>
+        <v>0.03015576963088322</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5049458777755311</v>
+        <v>0.1062952504150413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06300675641652188</v>
+        <v>1e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2225633584770463</v>
+        <v>0.9064774024050499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.007431067650536335</v>
+        <v>0.02510968189665722</v>
       </c>
       <c r="G56" t="n">
-        <v>1.784199100132781</v>
+        <v>0.008714361369732438</v>
       </c>
       <c r="H56" t="n">
-        <v>1.529890184469072</v>
+        <v>0.01968446359267567</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1573494433359597</v>
+        <v>1.050823599533729</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.680602794663737</v>
+        <v>2.119530152200656</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05037396872675413</v>
+        <v>0.01409432005209499</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5770229100958055</v>
+        <v>0.05593677078891385</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05407806693628305</v>
+        <v>1e-07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2902259555139166</v>
+        <v>0.9442496749887154</v>
       </c>
       <c r="F57" t="n">
-        <v>0.009757237596982616</v>
+        <v>0.03173641036301412</v>
       </c>
       <c r="G57" t="n">
-        <v>1.736641131167127</v>
+        <v>0.0285494530811312</v>
       </c>
       <c r="H57" t="n">
-        <v>1.481140210960977</v>
+        <v>0.1998395088461039</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1437859283120493</v>
+        <v>0.8548374040887852</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.765138915413402</v>
+        <v>2.127288750267269</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006526590852904814</v>
+        <v>0.02038112054258511</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4856696020399188</v>
+        <v>0.05194463239542087</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05772990591993668</v>
+        <v>1e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1451049992949287</v>
+        <v>0.9368604910645102</v>
       </c>
       <c r="F58" t="n">
-        <v>0.007348015541497991</v>
+        <v>0.03219324737391631</v>
       </c>
       <c r="G58" t="n">
-        <v>1.700671706739838</v>
+        <v>0.01748073135656815</v>
       </c>
       <c r="H58" t="n">
-        <v>1.689400162926358</v>
+        <v>0.1044099821977691</v>
       </c>
       <c r="I58" t="n">
-        <v>0.193437276808277</v>
+        <v>0.9580328527203806</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.753158780095487</v>
+        <v>2.138862380785246</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02872854052313607</v>
+        <v>0.03937990366044177</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6114079965897461</v>
+        <v>0.05547583561709476</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04500275683345523</v>
+        <v>1e-07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1645001630010494</v>
+        <v>0.9114676414873104</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003661614526756953</v>
+        <v>0.03883712391812819</v>
       </c>
       <c r="G59" t="n">
-        <v>1.614377218042422</v>
+        <v>0.01209827022320743</v>
       </c>
       <c r="H59" t="n">
-        <v>1.536252117244356</v>
+        <v>0.03434660017744888</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2598403420695193</v>
+        <v>1.047960962707835</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.744008704881713</v>
+        <v>2.11978671677811</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01748789460292692</v>
+        <v>0.02234298317187472</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6249875028184205</v>
+        <v>0.05201796570716603</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05341273683006521</v>
+        <v>1e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.168280312457453</v>
+        <v>0.9439240744679839</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005537499965711134</v>
+        <v>0.03354003977278947</v>
       </c>
       <c r="G60" t="n">
-        <v>1.588641884577885</v>
+        <v>0.01598786070536359</v>
       </c>
       <c r="H60" t="n">
-        <v>1.559757168566974</v>
+        <v>0.127725681613697</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2661983102254276</v>
+        <v>0.9365295786458857</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.728902246784195</v>
+        <v>2.133517375339167</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01745458653728097</v>
+        <v>0.03668529616699677</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5622719330811671</v>
+        <v>0.06434849408923846</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04184627276784666</v>
+        <v>1e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1673534467251896</v>
+        <v>0.9455956483832209</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00307052947025165</v>
+        <v>0.02682893531224913</v>
       </c>
       <c r="G61" t="n">
-        <v>1.677488880986932</v>
+        <v>0.01304769536690408</v>
       </c>
       <c r="H61" t="n">
-        <v>1.664767093011217</v>
+        <v>0.03438496742422455</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1686928885473576</v>
+        <v>1.027088010652261</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.68573250238044</v>
+        <v>2.126827885985433</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02362871669029709</v>
+        <v>0.02751659643373991</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5810806005549606</v>
+        <v>0.05486444486781929</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02771961863414769</v>
+        <v>1e-07</v>
       </c>
       <c r="E62" t="n">
-        <v>0.152767465003464</v>
+        <v>0.9489418480800758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006186647301751135</v>
+        <v>0.03133182752142374</v>
       </c>
       <c r="G62" t="n">
-        <v>1.625697856463304</v>
+        <v>0.01177264339582585</v>
       </c>
       <c r="H62" t="n">
-        <v>1.738168848922081</v>
+        <v>0.06101046480382236</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2775771371001718</v>
+        <v>1.008150322150291</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.75555481000536</v>
+        <v>2.123992997145913</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02996975182680891</v>
+        <v>0.05022307339292938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5531671574980547</v>
+        <v>0.06902598983860304</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05955635781857459</v>
+        <v>1e-07</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1408291618165406</v>
+        <v>0.9150353233956219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003680911584258133</v>
+        <v>0.03364891723097696</v>
       </c>
       <c r="G63" t="n">
-        <v>1.632603014917498</v>
+        <v>0.01221107849219035</v>
       </c>
       <c r="H63" t="n">
-        <v>1.596343958999923</v>
+        <v>0.03861624825180832</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2640184321596378</v>
+        <v>1.030733319132764</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.843282078326367</v>
+        <v>2.118455582699749</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01976976464981949</v>
+        <v>0.05872777957700519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3535914416004197</v>
+        <v>0.05841494165385831</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03751342257014913</v>
+        <v>1e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1364959284902854</v>
+        <v>0.8976167463522129</v>
       </c>
       <c r="F64" t="n">
-        <v>6.182764102724299e-06</v>
+        <v>0.04093090213981136</v>
       </c>
       <c r="G64" t="n">
-        <v>1.733497102738788</v>
+        <v>0.0190876215882892</v>
       </c>
       <c r="H64" t="n">
-        <v>1.746463227467609</v>
+        <v>0.07080655807890031</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1415320964728701</v>
+        <v>0.9834133168101726</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.776177770084988</v>
+        <v>2.127986886252917</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02505826879157896</v>
+        <v>0.02476734819474776</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5026543564681959</v>
+        <v>0.04850097253733191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05782144484168472</v>
+        <v>1e-07</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1312190504223212</v>
+        <v>0.9525501166496176</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002453222286081715</v>
+        <v>0.03206719910779367</v>
       </c>
       <c r="G65" t="n">
-        <v>1.675302723586197</v>
+        <v>0.01472343387931865</v>
       </c>
       <c r="H65" t="n">
-        <v>1.62923694895561</v>
+        <v>0.1022937811288627</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2316504335139121</v>
+        <v>0.9463028609799629</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.724314004955522</v>
+        <v>2.133517375339167</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03503653068867785</v>
+        <v>0.03668529616699677</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5677537817053704</v>
+        <v>0.06434849408923846</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05350549724835491</v>
+        <v>1e-07</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1626625401311682</v>
+        <v>0.9455956483832209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.005547116788281614</v>
+        <v>0.02682893531224913</v>
       </c>
       <c r="G66" t="n">
-        <v>1.600079230694613</v>
+        <v>0.01304769536690408</v>
       </c>
       <c r="H66" t="n">
-        <v>1.644331686776302</v>
+        <v>0.03438496742422455</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2553733878821364</v>
+        <v>1.027088010652261</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.803275676392408</v>
+        <v>2.090199046333176</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01252775796899452</v>
+        <v>0.04792412377048146</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4915061158441765</v>
+        <v>0.01755079871263023</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06640149259226981</v>
+        <v>1e-07</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1422855809577931</v>
+        <v>0.7953098209116987</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004905905559525863</v>
+        <v>0.0294304176043237</v>
       </c>
       <c r="G67" t="n">
-        <v>1.655690755213862</v>
+        <v>0.1782131098915492</v>
       </c>
       <c r="H67" t="n">
-        <v>1.598028288586982</v>
+        <v>0.3310745415524824</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2484704382822145</v>
+        <v>0.6993682085202796</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine-Augite</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine-Augite</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine-Augite</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine-Augite</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.767192961523931</v>
+        <v>2.137795648929345</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03243279462290818</v>
+        <v>0.0165383720424388</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6435875558948555</v>
+        <v>0.05719573877210236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02897194364295808</v>
+        <v>1e-07</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1886138367524065</v>
+        <v>0.970085199460066</v>
       </c>
       <c r="F68" t="n">
-        <v>6.085787723751504e-06</v>
+        <v>0.02037645171301979</v>
       </c>
       <c r="G68" t="n">
-        <v>1.59062542869999</v>
+        <v>0.01793177296504671</v>
       </c>
       <c r="H68" t="n">
-        <v>1.486576008666828</v>
+        <v>0.08754973548310653</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2521550310615764</v>
+        <v>0.9771227098858584</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.737512126005514</v>
+        <v>2.119282509805786</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04708159420244374</v>
+        <v>0.06175524336873683</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5248860795706618</v>
+        <v>0.0441988576823654</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06789050668376459</v>
+        <v>1e-07</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1655268475184299</v>
+        <v>0.9108895688793861</v>
       </c>
       <c r="F69" t="n">
-        <v>0.005547264783721213</v>
+        <v>0.04129306800095284</v>
       </c>
       <c r="G69" t="n">
-        <v>1.619648831906697</v>
+        <v>0.0291953586810388</v>
       </c>
       <c r="H69" t="n">
-        <v>1.628001973988925</v>
+        <v>0.07589763739284773</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2313942154236585</v>
+        <v>0.989691046639965</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.689530812120374</v>
+        <v>1.834960792882113</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0389162430022578</v>
+        <v>0.04450298497788458</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6148179018439277</v>
+        <v>0.2581845560158462</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04781068700990157</v>
+        <v>3.017392298770986e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1686519844814803</v>
+        <v>0.3357679005059535</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004319706859831633</v>
+        <v>0.008727802013507334</v>
       </c>
       <c r="G70" t="n">
-        <v>1.591177131233905</v>
+        <v>0.609333787220691</v>
       </c>
       <c r="H70" t="n">
-        <v>1.616681173751857</v>
+        <v>0.8333613360589253</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3319681065843826</v>
+        <v>0.1331943767165604</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3884,31 +3884,31 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.684477417958198</v>
+        <v>1.863386076680662</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03601942163601619</v>
+        <v>0.02971303195916667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6352468755140143</v>
+        <v>0.2397699053634933</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04301583889983116</v>
+        <v>0.002945882624597641</v>
       </c>
       <c r="E71" t="n">
-        <v>0.136254711004895</v>
+        <v>0.1950659332358734</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01044540778017015</v>
+        <v>0.004418275765270306</v>
       </c>
       <c r="G71" t="n">
-        <v>1.637295320325411</v>
+        <v>0.7598634376074337</v>
       </c>
       <c r="H71" t="n">
-        <v>1.612030579161428</v>
+        <v>0.8535334188202629</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2911515364472009</v>
+        <v>0.07368807611123003</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3933,31 +3933,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.711302622242067</v>
+        <v>1.843508096978929</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03268090919601771</v>
+        <v>0.03356041329143564</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6186454324390088</v>
+        <v>0.2764625681475625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04751112415460246</v>
+        <v>0.003820883013218784</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1500942395528035</v>
+        <v>0.1946195120803219</v>
       </c>
       <c r="F72" t="n">
-        <v>6.132344693037378e-06</v>
+        <v>0.004723033127141878</v>
       </c>
       <c r="G72" t="n">
-        <v>1.622221699189804</v>
+        <v>0.7376196126955544</v>
       </c>
       <c r="H72" t="n">
-        <v>1.590261208257368</v>
+        <v>0.8491902106082887</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3004087612980892</v>
+        <v>0.07856488762490797</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3982,178 +3982,178 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.748964344867375</v>
+        <v>1.783413141981741</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02778423441151978</v>
+        <v>0.06091894689991129</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5112296160891816</v>
+        <v>0.3415612727747389</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05897117987290637</v>
+        <v>3.063235843063193e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1996613324604288</v>
+        <v>0.4199301860326025</v>
       </c>
       <c r="F73" t="n">
-        <v>6.133550375619203e-06</v>
+        <v>0.01345468814201657</v>
       </c>
       <c r="G73" t="n">
-        <v>1.779073175407536</v>
+        <v>0.4493596202423282</v>
       </c>
       <c r="H73" t="n">
-        <v>1.525399135918039</v>
+        <v>0.8339840830247919</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1741028517398942</v>
+        <v>0.1645152482513539</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.751932509326635</v>
+        <v>1.849010664794057</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03881560453818048</v>
+        <v>0.04465933260875393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3451548467897104</v>
+        <v>0.2556368222564745</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06090153025025793</v>
+        <v>3.008582772604607e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2286215097423744</v>
+        <v>0.3335146417255588</v>
       </c>
       <c r="F74" t="n">
-        <v>6.155051400383207e-06</v>
+        <v>0.008380012308569888</v>
       </c>
       <c r="G74" t="n">
-        <v>1.896891531763374</v>
+        <v>0.5877000552777839</v>
       </c>
       <c r="H74" t="n">
-        <v>1.632744240692795</v>
+        <v>0.8354131612916593</v>
       </c>
       <c r="I74" t="n">
-        <v>0.09581044555512813</v>
+        <v>0.1283786545693078</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.726799790862234</v>
+        <v>1.800035388854636</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02578743424101472</v>
+        <v>0.05662774642383337</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4951008630041223</v>
+        <v>0.3165769581613984</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05477825771757861</v>
+        <v>3.020907215760272e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1658323223125698</v>
+        <v>0.3329636036568593</v>
       </c>
       <c r="F75" t="n">
-        <v>6.177232586837288e-06</v>
+        <v>0.007119826515045841</v>
       </c>
       <c r="G75" t="n">
-        <v>1.815662368948084</v>
+        <v>0.5718802668264349</v>
       </c>
       <c r="H75" t="n">
-        <v>1.568300830039126</v>
+        <v>0.8376072082189852</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2403893030063443</v>
+        <v>0.1244595640723487</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.849782814426513</v>
+        <v>1.821709463552394</v>
       </c>
       <c r="B76" t="n">
-        <v>1e-07</v>
+        <v>0.03809969870694205</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3952903171789885</v>
+        <v>0.331740689651375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04323475652977656</v>
+        <v>0.005222630420158998</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1585392356265515</v>
+        <v>0.1780067373828236</v>
       </c>
       <c r="F76" t="n">
-        <v>1e-07</v>
+        <v>0.003419155230159236</v>
       </c>
       <c r="G76" t="n">
-        <v>1.728235374855216</v>
+        <v>0.767553173676002</v>
       </c>
       <c r="H76" t="n">
-        <v>1.663982474542143</v>
+        <v>0.7883672161758435</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1837793511198342</v>
+        <v>0.0740000026826016</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4178,80 +4178,80 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.73347301765671</v>
+        <v>1.801106133701193</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03255684857163118</v>
+        <v>0.04500872157548452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6483545091920442</v>
+        <v>0.3791060736049079</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04059408174880914</v>
+        <v>0.0008759458344393027</v>
       </c>
       <c r="E77" t="n">
-        <v>0.199360769221102</v>
+        <v>0.2137242241290664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005591348159863961</v>
+        <v>0.004066386861106187</v>
       </c>
       <c r="G77" t="n">
-        <v>1.582221293200406</v>
+        <v>0.7377255198698125</v>
       </c>
       <c r="H77" t="n">
-        <v>1.536416044870461</v>
+        <v>0.7371676054211138</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2218558513604082</v>
+        <v>0.09022110654089417</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.781457501167682</v>
+        <v>1.855915737539642</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007688694639862128</v>
+        <v>0.0443424421329599</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4387889455291136</v>
+        <v>0.2582759261138814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04328726778718399</v>
+        <v>2.987234687656075e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1587317912294824</v>
+        <v>0.3355718468797486</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005564815436547619</v>
+        <v>0.008000528866144595</v>
       </c>
       <c r="G78" t="n">
-        <v>1.784747454624577</v>
+        <v>0.5824033899640143</v>
       </c>
       <c r="H78" t="n">
-        <v>1.673825095675767</v>
+        <v>0.8238177544602012</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1514482628881843</v>
+        <v>0.1245374222698212</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4276,31 +4276,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.753335514774114</v>
+        <v>1.785919496116489</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0294188066847789</v>
+        <v>0.04296508447597048</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6068226989100504</v>
+        <v>0.3804074400792833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03836016171831905</v>
+        <v>0.0005826239074896349</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1865297039498643</v>
+        <v>0.1790301172291071</v>
       </c>
       <c r="F79" t="n">
-        <v>0.004293515260844147</v>
+        <v>0.003744974769532491</v>
       </c>
       <c r="G79" t="n">
-        <v>1.659256417278385</v>
+        <v>0.7497646649710853</v>
       </c>
       <c r="H79" t="n">
-        <v>1.517650842505912</v>
+        <v>0.7990357381488614</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1979731742893039</v>
+        <v>0.07715492770017707</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4325,80 +4325,80 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.850850307021089</v>
+        <v>1.783669477203896</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02345987450069678</v>
+        <v>0.04647401061952101</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3794906878378964</v>
+        <v>0.400875195679179</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07052395740107024</v>
+        <v>2.942228506333762e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1188719240174244</v>
+        <v>0.2091401088454408</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003071219888525633</v>
+        <v>0.004412795267835029</v>
       </c>
       <c r="G80" t="n">
-        <v>1.69192036020552</v>
+        <v>0.7361754552054858</v>
       </c>
       <c r="H80" t="n">
-        <v>1.67601961990179</v>
+        <v>0.7412303252197802</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1729490901694381</v>
+        <v>0.09307814435991078</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.682519987246633</v>
+        <v>1.863729827762926</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01877853098941371</v>
+        <v>0.02977209236800259</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5745286650053483</v>
+        <v>0.256966946512312</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05340044296053793</v>
+        <v>0.00885521441150915</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1602467378337486</v>
+        <v>0.2001370590968728</v>
       </c>
       <c r="F81" t="n">
-        <v>0.007461869036085172</v>
+        <v>0.004743276369140449</v>
       </c>
       <c r="G81" t="n">
-        <v>1.718267186023833</v>
+        <v>0.7352155025949169</v>
       </c>
       <c r="H81" t="n">
-        <v>1.655794831252696</v>
+        <v>0.8324291825585618</v>
       </c>
       <c r="I81" t="n">
-        <v>0.219209494347815</v>
+        <v>0.08107322636751096</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4423,521 +4423,521 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.715049412005856</v>
+        <v>1.78499120263458</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03459933934928415</v>
+        <v>0.04688644267176349</v>
       </c>
       <c r="C82" t="n">
-        <v>0.622051695988415</v>
+        <v>0.394533767606412</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05309937609645586</v>
+        <v>0.001180225891380617</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1666694091025812</v>
+        <v>0.2109810746746647</v>
       </c>
       <c r="F82" t="n">
-        <v>1e-07</v>
+        <v>0.005689668921174555</v>
       </c>
       <c r="G82" t="n">
-        <v>1.544251380180584</v>
+        <v>0.7310288614301121</v>
       </c>
       <c r="H82" t="n">
-        <v>1.66523159591248</v>
+        <v>0.7461294396709451</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2236352632948738</v>
+        <v>0.09768334485245157</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.754796216919438</v>
+        <v>1.77043067586695</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01803038007764464</v>
+        <v>0.04874882025985066</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5375408947671978</v>
+        <v>0.4068698607338679</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04938143738133108</v>
+        <v>2.944348384901246e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1573101328000997</v>
+        <v>0.209602239136716</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00738169107749175</v>
+        <v>0.004415974691217966</v>
       </c>
       <c r="G83" t="n">
-        <v>1.650001179422194</v>
+        <v>0.7383713696838586</v>
       </c>
       <c r="H83" t="n">
-        <v>1.664460336833082</v>
+        <v>0.7545327849012791</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1872830718256135</v>
+        <v>0.08881287203438198</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.751865124771379</v>
+        <v>1.836004486291281</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01046614653040124</v>
+        <v>0.04623274193476982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5056985986556929</v>
+        <v>0.2802675041000836</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07467878683181285</v>
+        <v>3.017853191827826e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1696207466793455</v>
+        <v>0.3434804617779119</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004961430076356826</v>
+        <v>0.008405833844179134</v>
       </c>
       <c r="G84" t="n">
-        <v>1.745380097375918</v>
+        <v>0.565042831172229</v>
       </c>
       <c r="H84" t="n">
-        <v>1.510204179640403</v>
+        <v>0.8289899163135529</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3421418455382332</v>
+        <v>0.1383952940615043</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.682745643680448</v>
+        <v>1.984953090925592</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03157017933759446</v>
+        <v>0.004109983874005815</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6207852065607854</v>
+        <v>0.1407938312040089</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04805102713080788</v>
+        <v>0.006047035074070678</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1760791918130858</v>
+        <v>0.1666366824306658</v>
       </c>
       <c r="F85" t="n">
-        <v>0.004289738055471969</v>
+        <v>1e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>1.676132764834888</v>
+        <v>0.8095335423900593</v>
       </c>
       <c r="H85" t="n">
-        <v>1.582208758793678</v>
+        <v>0.7515828573803112</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2553150316880904</v>
+        <v>0.139820222975835</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.780027744420268</v>
+        <v>1.982889498384891</v>
       </c>
       <c r="B86" t="n">
-        <v>0.00440122484149931</v>
+        <v>0.003009750283036899</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4671364752149333</v>
+        <v>0.1028750228926923</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08383510350275289</v>
+        <v>0.01006422082269826</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1535052671648849</v>
+        <v>0.1428314089815445</v>
       </c>
       <c r="F86" t="n">
-        <v>0.004955154883436603</v>
+        <v>1e-07</v>
       </c>
       <c r="G86" t="n">
-        <v>1.651598756571955</v>
+        <v>0.8599026901878015</v>
       </c>
       <c r="H86" t="n">
-        <v>1.683804664580999</v>
+        <v>0.8031330440078709</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2169356566179808</v>
+        <v>0.09378758672991794</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.775978291897077</v>
+        <v>1.903343784672955</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0229396632772095</v>
+        <v>0.008265723804424956</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5193825613535799</v>
+        <v>0.1346713312029375</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08265603616657237</v>
+        <v>0.004922467870651511</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1724336734114894</v>
+        <v>0.2223825214303961</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01229847952028753</v>
+        <v>0.00465301627951844</v>
       </c>
       <c r="G87" t="n">
-        <v>1.619114968277382</v>
+        <v>0.9194117881454547</v>
       </c>
       <c r="H87" t="n">
-        <v>1.572084139252828</v>
+        <v>0.813842022945942</v>
       </c>
       <c r="I87" t="n">
-        <v>0.246338185621862</v>
+        <v>0.01420187126709154</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.740584018418275</v>
+        <v>1.934283484930094</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01309122361150318</v>
+        <v>0.006920178051618592</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5913383132950737</v>
+        <v>0.09366814844396988</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04700642099432716</v>
+        <v>0.001454526367283208</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1564424818722028</v>
+        <v>0.2646834188491453</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007369430436392158</v>
+        <v>0.007791138899199555</v>
       </c>
       <c r="G88" t="n">
-        <v>1.650503244187751</v>
+        <v>0.9395999150639982</v>
       </c>
       <c r="H88" t="n">
-        <v>1.630621492371307</v>
+        <v>0.7553434873458038</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1757255671681802</v>
+        <v>0.01498140332309456</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.680626578304333</v>
+        <v>1.922241402428021</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03460514897198965</v>
+        <v>0.01059834069538911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.62559822657164</v>
+        <v>0.09743613917003115</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04791291568610388</v>
+        <v>0.0005862172710125149</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1642549421215763</v>
+        <v>0.2581623325823135</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004947363708415455</v>
+        <v>0.01099021028566629</v>
       </c>
       <c r="G89" t="n">
-        <v>1.623967534117984</v>
+        <v>0.8665800443414322</v>
       </c>
       <c r="H89" t="n">
-        <v>1.649082961421777</v>
+        <v>0.8432881509118023</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2293354170909631</v>
+        <v>0.01653248194080212</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.779375083263586</v>
+        <v>1.924390899448448</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02832561487870151</v>
+        <v>0.01173157953440017</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5927856182144791</v>
+        <v>0.1072097313070954</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07245485987009412</v>
+        <v>0.000880648881089016</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1497166183272481</v>
+        <v>0.2602588523190517</v>
       </c>
       <c r="F90" t="n">
-        <v>0.006618808864725425</v>
+        <v>0.0132080944995541</v>
       </c>
       <c r="G90" t="n">
-        <v>1.493244538453681</v>
+        <v>0.8374414881814857</v>
       </c>
       <c r="H90" t="n">
-        <v>1.587015834803772</v>
+        <v>0.8453525314126311</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3002727430770417</v>
+        <v>0.0187170106786055</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.790285250921936</v>
+        <v>1.769281497912776</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02094229056900601</v>
+        <v>0.04722965788698157</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5914146526705834</v>
+        <v>0.4121703828938348</v>
       </c>
       <c r="D91" t="n">
-        <v>0.083402181538168</v>
+        <v>0.00116788533137461</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1837925193504419</v>
+        <v>0.2362616895237881</v>
       </c>
       <c r="F91" t="n">
-        <v>0.007445699570161209</v>
+        <v>0.004379026690627141</v>
       </c>
       <c r="G91" t="n">
-        <v>1.548549745267817</v>
+        <v>0.7079705506542783</v>
       </c>
       <c r="H91" t="n">
-        <v>1.506216092744442</v>
+        <v>0.759694235983932</v>
       </c>
       <c r="I91" t="n">
-        <v>0.238619431909236</v>
+        <v>0.07732956642009106</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.78508732229374</v>
+        <v>1.783072675163361</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02803570185125167</v>
+        <v>0.04381929235754393</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6700107611331149</v>
+        <v>0.3998731223842487</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07163698113741891</v>
+        <v>0.001726914999178516</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2352707722436829</v>
+        <v>0.220419460542453</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01114031420597837</v>
+        <v>0.004008412499273846</v>
       </c>
       <c r="G92" t="n">
-        <v>1.493437517595755</v>
+        <v>0.7337200966639248</v>
       </c>
       <c r="H92" t="n">
-        <v>1.389668899878084</v>
+        <v>0.7496706092858861</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2635179129216119</v>
+        <v>0.07199485978302335</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4962,31 +4962,31 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.792767421533544</v>
+        <v>1.779760688310502</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02819807087606896</v>
+        <v>0.04726916060977772</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5942839241370225</v>
+        <v>0.4137459497659458</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06541897331212471</v>
+        <v>0.0005776353631619757</v>
       </c>
       <c r="E93" t="n">
-        <v>0.176248643889365</v>
+        <v>0.2269887059470442</v>
       </c>
       <c r="F93" t="n">
-        <v>0.007787006886185805</v>
+        <v>0.004331727790020573</v>
       </c>
       <c r="G93" t="n">
-        <v>1.623575895363427</v>
+        <v>0.7003235936764987</v>
       </c>
       <c r="H93" t="n">
-        <v>1.409380299783915</v>
+        <v>0.757751004269607</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3030342684302615</v>
+        <v>0.07011978556521714</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5011,80 +5011,80 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.735010559833471</v>
+        <v>1.971928783520928</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01968005596212353</v>
+        <v>0.0002747723398819131</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5652345342593577</v>
+        <v>0.1713235277713249</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04825890332372725</v>
+        <v>0.04331502857049325</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2856193839062754</v>
+        <v>0.06689337662856341</v>
       </c>
       <c r="F94" t="n">
-        <v>1e-07</v>
+        <v>0.0006187093597042162</v>
       </c>
       <c r="G94" t="n">
-        <v>1.624888006789024</v>
+        <v>0.7377694251917052</v>
       </c>
       <c r="H94" t="n">
-        <v>1.533775438111655</v>
+        <v>0.8527111985814814</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1972458185367147</v>
+        <v>0.149420920893401</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3.740713946220654</v>
+        <v>1.995388702019041</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02336083209267799</v>
+        <v>0.0005488646889771372</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5787482480785481</v>
+        <v>0.07781705575489943</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0451046458996976</v>
+        <v>0.008940695905229529</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2415715775759271</v>
+        <v>0.1271474753308226</v>
       </c>
       <c r="F95" t="n">
-        <v>1e-07</v>
+        <v>0.003398690825921238</v>
       </c>
       <c r="G95" t="n">
-        <v>1.64709871734991</v>
+        <v>0.8864030588503532</v>
       </c>
       <c r="H95" t="n">
-        <v>1.531992950333582</v>
+        <v>0.8051452598518793</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1820200150473109</v>
+        <v>0.1110429240923241</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5109,31 +5109,31 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.713142860409353</v>
+        <v>1.990002667330441</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02820544048923021</v>
+        <v>0.008945150841511127</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6203164916255292</v>
+        <v>0.0785608875534925</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0490232758245723</v>
+        <v>0.01965609096713049</v>
       </c>
       <c r="E96" t="n">
-        <v>0.217069114941897</v>
+        <v>0.1108887630608243</v>
       </c>
       <c r="F96" t="n">
-        <v>1e-07</v>
+        <v>0.003051809403039599</v>
       </c>
       <c r="G96" t="n">
-        <v>1.655230993104068</v>
+        <v>0.9953079975044595</v>
       </c>
       <c r="H96" t="n">
-        <v>1.514109688861142</v>
+        <v>0.6883301550734844</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2096895285601331</v>
+        <v>0.1075846696613475</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5158,325 +5158,325 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.73662633112551</v>
+        <v>1.980566449064027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02654015807937379</v>
+        <v>0.001082844505400046</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5854872477778041</v>
+        <v>0.03774479203265992</v>
       </c>
       <c r="D97" t="n">
-        <v>0.04667621285986014</v>
+        <v>0.02304440285259376</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1986951914104801</v>
+        <v>0.08877570167659626</v>
       </c>
       <c r="F97" t="n">
-        <v>1e-07</v>
+        <v>0.003352605624221215</v>
       </c>
       <c r="G97" t="n">
-        <v>1.652861607150022</v>
+        <v>1.079300623788176</v>
       </c>
       <c r="H97" t="n">
-        <v>1.558226259781488</v>
+        <v>0.747576496984945</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1814707854106474</v>
+        <v>0.05302438491865429</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3.731778117621137</v>
+        <v>1.976251410287639</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02699464296011909</v>
+        <v>0.008721526998207257</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6005191434231552</v>
+        <v>0.07899056203761264</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04709339604335119</v>
+        <v>0.02033645424732192</v>
       </c>
       <c r="E98" t="n">
-        <v>0.198055777184809</v>
+        <v>0.1348244179236266</v>
       </c>
       <c r="F98" t="n">
-        <v>1e-07</v>
+        <v>0.003989050935272536</v>
       </c>
       <c r="G98" t="n">
-        <v>1.647542589527225</v>
+        <v>1.01965414025897</v>
       </c>
       <c r="H98" t="n">
-        <v>1.5455226176935</v>
+        <v>0.6656997591569267</v>
       </c>
       <c r="I98" t="n">
-        <v>0.194801169725148</v>
+        <v>0.1137924654522194</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.779672465001866</v>
+        <v>1.89599534082257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02182670597976507</v>
+        <v>0.00544832162403556</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4180208946405687</v>
+        <v>0.2389910803774222</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08143120948769285</v>
+        <v>0.03950810157149319</v>
       </c>
       <c r="E99" t="n">
-        <v>0.233536586608995</v>
+        <v>0.101750841674468</v>
       </c>
       <c r="F99" t="n">
-        <v>0.007986476856210855</v>
+        <v>1e-07</v>
       </c>
       <c r="G99" t="n">
-        <v>1.694359450120868</v>
+        <v>0.8707138535757079</v>
       </c>
       <c r="H99" t="n">
-        <v>1.595470874610264</v>
+        <v>0.7581044131355406</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2236048774696709</v>
+        <v>0.09758958759539892</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.765074059537979</v>
+        <v>1.893675952919571</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03108433257642189</v>
+        <v>0.008233244323109635</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4391276003804728</v>
+        <v>0.2287295656648001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07393170732389233</v>
+        <v>0.03028401006030736</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1897479185507653</v>
+        <v>0.1015921084892709</v>
       </c>
       <c r="F100" t="n">
-        <v>0.006139745499938132</v>
+        <v>0.002780839581030284</v>
       </c>
       <c r="G100" t="n">
-        <v>1.716032604526173</v>
+        <v>0.8962213836193005</v>
       </c>
       <c r="H100" t="n">
-        <v>1.610820572465318</v>
+        <v>0.755923666810042</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2248757450172089</v>
+        <v>0.09760785666230033</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.748731139107949</v>
+        <v>1.8767918122843</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03435938791884978</v>
+        <v>0.01332259944967648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4553999751540507</v>
+        <v>0.253011499259609</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07393820680254386</v>
+        <v>0.03628866118027293</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1746076827500179</v>
+        <v>0.09822957014595508</v>
       </c>
       <c r="F101" t="n">
-        <v>0.004298199679745467</v>
+        <v>0.001530546657882997</v>
       </c>
       <c r="G101" t="n">
-        <v>1.730232825107926</v>
+        <v>0.8868109919254917</v>
       </c>
       <c r="H101" t="n">
-        <v>1.614845891053104</v>
+        <v>0.7419251954483711</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2234899173124341</v>
+        <v>0.1100141340073165</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.7403583258929</v>
+        <v>1.880088462746124</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0377154136546005</v>
+        <v>0.01852098106505992</v>
       </c>
       <c r="C102" t="n">
-        <v>0.472682786064935</v>
+        <v>0.2534559228075068</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07352822605586305</v>
+        <v>0.03577992468787917</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1756036825421726</v>
+        <v>0.1056687314576993</v>
       </c>
       <c r="F102" t="n">
-        <v>0.004923154326199907</v>
+        <v>0.001839882139944819</v>
       </c>
       <c r="G102" t="n">
-        <v>1.722166967037552</v>
+        <v>0.8678595868603408</v>
       </c>
       <c r="H102" t="n">
-        <v>1.605982234643564</v>
+        <v>0.7350823813375605</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2282131893561246</v>
+        <v>0.1116112933208622</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.768597251333642</v>
+        <v>1.883429763285143</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03322644991223996</v>
+        <v>0.01384875218076663</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6246347074195024</v>
+        <v>0.258645526486518</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05552648405797728</v>
+        <v>0.02596905786278918</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1628817318175813</v>
+        <v>0.1068586594190987</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00551925289518485</v>
+        <v>0.002445761661296095</v>
       </c>
       <c r="G103" t="n">
-        <v>1.594200524233051</v>
+        <v>0.8808409424671562</v>
       </c>
       <c r="H103" t="n">
-        <v>1.435926628861946</v>
+        <v>0.7262861791570164</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3551653333200995</v>
+        <v>0.1182723193663941</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5501,129 +5501,129 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3.863838267935962</v>
+        <v>1.894021681047916</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01550289411063813</v>
+        <v>0.007363046255112568</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3296091583700473</v>
+        <v>0.2307004537763474</v>
       </c>
       <c r="D104" t="n">
-        <v>0.08669925224089101</v>
+        <v>0.03553773821175952</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1538662529479284</v>
+        <v>0.09458327560503743</v>
       </c>
       <c r="F104" t="n">
-        <v>1e-07</v>
+        <v>0.002763248559353441</v>
       </c>
       <c r="G104" t="n">
-        <v>1.777371081385669</v>
+        <v>0.8889309200775124</v>
       </c>
       <c r="H104" t="n">
-        <v>1.592860867999836</v>
+        <v>0.7600747660426266</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1855043264425222</v>
+        <v>0.0976932384043</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3.754457950168549</v>
+        <v>1.973411148216043</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0320472690072638</v>
+        <v>0.009295907167057567</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5616216927059851</v>
+        <v>0.117361147759966</v>
       </c>
       <c r="D105" t="n">
-        <v>0.07249650486228779</v>
+        <v>0.02499806814697641</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2158553562049678</v>
+        <v>0.08272783455655926</v>
       </c>
       <c r="F105" t="n">
         <v>1e-07</v>
       </c>
       <c r="G105" t="n">
-        <v>1.765188982544022</v>
+        <v>0.861426704966018</v>
       </c>
       <c r="H105" t="n">
-        <v>1.415669345949312</v>
+        <v>0.8138247085283152</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1581879503888998</v>
+        <v>0.1261309983452802</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.933962936259681</v>
+        <v>1.791204470099082</v>
       </c>
       <c r="B106" t="n">
-        <v>0.001617239303751928</v>
+        <v>0.03403426906047299</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1722836739395649</v>
+        <v>0.3264128271202191</v>
       </c>
       <c r="D106" t="n">
-        <v>0.05098822296119367</v>
+        <v>0.06048518112067615</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1022918050272946</v>
+        <v>0.06487020032561192</v>
       </c>
       <c r="F106" t="n">
         <v>1e-07</v>
       </c>
       <c r="G106" t="n">
-        <v>1.848023466652405</v>
+        <v>0.7840715571566633</v>
       </c>
       <c r="H106" t="n">
-        <v>1.758167465666841</v>
+        <v>0.8945588114293358</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1708889909727821</v>
+        <v>0.05134518868671754</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5648,31 +5648,31 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3.685509663595983</v>
+        <v>1.968695837165403</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02362728810194941</v>
+        <v>2.707611873473619e-06</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5810454685168607</v>
+        <v>0.1815478471418657</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02771794271053737</v>
+        <v>0.04382091734315702</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1527582287075082</v>
+        <v>0.06654659257043351</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00618627325806682</v>
+        <v>1e-07</v>
       </c>
       <c r="G107" t="n">
-        <v>1.625599567036712</v>
+        <v>0.820892308655977</v>
       </c>
       <c r="H107" t="n">
-        <v>1.738063759517674</v>
+        <v>0.7558127354511516</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2789764790911942</v>
+        <v>0.1625916626815372</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5697,227 +5697,227 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.753489396284372</v>
+        <v>1.958966617935541</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02995326959188777</v>
+        <v>0.009499272876777305</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5528629363922801</v>
+        <v>0.1594463240063904</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05952360406451331</v>
+        <v>0.0744452787606986</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1423277069442384</v>
+        <v>0.05831631290605402</v>
       </c>
       <c r="F108" t="n">
-        <v>0.003678887221500435</v>
+        <v>1e-07</v>
       </c>
       <c r="G108" t="n">
-        <v>1.631705144738915</v>
+        <v>0.8443651834890521</v>
       </c>
       <c r="H108" t="n">
-        <v>1.595466029936672</v>
+        <v>0.7189637394730736</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2638732319642036</v>
+        <v>0.181166554349138</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.774547635641987</v>
+        <v>1.911067501150309</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02504745141233301</v>
+        <v>0.004348459714676419</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5024373661067</v>
+        <v>0.2039444569863264</v>
       </c>
       <c r="D109" t="n">
-        <v>0.05779648395940655</v>
+        <v>0.0462705665280435</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1313257996695099</v>
+        <v>0.06854584257547361</v>
       </c>
       <c r="F109" t="n">
-        <v>0.002697379582680006</v>
+        <v>1e-07</v>
       </c>
       <c r="G109" t="n">
-        <v>1.674579513812069</v>
+        <v>0.9155303283971112</v>
       </c>
       <c r="H109" t="n">
-        <v>1.628533625270125</v>
+        <v>0.7547824681572132</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2315504325676117</v>
+        <v>0.1099691990832955</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.734497683378526</v>
+        <v>1.98383714492573</v>
       </c>
       <c r="B110" t="n">
-        <v>0.04704362114450425</v>
+        <v>0.002979491955661338</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524462739413031</v>
+        <v>0.1026894487167516</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06783575046347265</v>
+        <v>0.05066917911753532</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1686836005311305</v>
+        <v>0.06184264447836229</v>
       </c>
       <c r="F110" t="n">
-        <v>0.005542790708222999</v>
+        <v>1e-07</v>
       </c>
       <c r="G110" t="n">
-        <v>1.618342524845997</v>
+        <v>0.9285471920614342</v>
       </c>
       <c r="H110" t="n">
-        <v>1.626688929808261</v>
+        <v>0.7406661296475043</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2312075873772214</v>
+        <v>0.1305410434729392</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.722708712526096</v>
+        <v>2.008486942616365</v>
       </c>
       <c r="B111" t="n">
-        <v>0.03502142888002448</v>
+        <v>0.002717623781795878</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5675090625849264</v>
+        <v>0.03320816371283353</v>
       </c>
       <c r="D111" t="n">
-        <v>0.05348243475428185</v>
+        <v>0.07711297041225945</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1625924276369273</v>
+        <v>0.0655231027255128</v>
       </c>
       <c r="F111" t="n">
-        <v>0.005544725812500967</v>
+        <v>1e-07</v>
       </c>
       <c r="G111" t="n">
-        <v>1.599389547957846</v>
+        <v>0.9316306827270522</v>
       </c>
       <c r="H111" t="n">
-        <v>1.643622929887184</v>
+        <v>0.75086660353847</v>
       </c>
       <c r="I111" t="n">
-        <v>0.255263314197238</v>
+        <v>0.1281729456732736</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.796451811789782</v>
+        <v>1.986214333810435</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0125530745008243</v>
+        <v>0.004362753234343261</v>
       </c>
       <c r="C112" t="n">
-        <v>0.492499368607927</v>
+        <v>0.1106372455457016</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06653567905284141</v>
+        <v>0.04670921891626563</v>
       </c>
       <c r="E112" t="n">
-        <v>0.142573116640407</v>
+        <v>0.07016584511467627</v>
       </c>
       <c r="F112" t="n">
-        <v>0.004915819585208592</v>
+        <v>1e-07</v>
       </c>
       <c r="G112" t="n">
-        <v>1.660118143239414</v>
+        <v>0.8537016077127931</v>
       </c>
       <c r="H112" t="n">
-        <v>1.601257640090501</v>
+        <v>0.7883306800620951</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2489725560414416</v>
+        <v>0.1412513688530134</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5942,423 +5942,423 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.68952545836094</v>
+        <v>1.975347448465427</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03891618653214989</v>
+        <v>0.004926191431997916</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6148170097014549</v>
+        <v>0.112331354350198</v>
       </c>
       <c r="D113" t="n">
-        <v>0.04781061763335217</v>
+        <v>0.05004519223004687</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1686517397560128</v>
+        <v>0.08812971861907003</v>
       </c>
       <c r="F113" t="n">
-        <v>0.004319700591644015</v>
+        <v>1e-07</v>
       </c>
       <c r="G113" t="n">
-        <v>1.591174822327973</v>
+        <v>0.878541213886617</v>
       </c>
       <c r="H113" t="n">
-        <v>1.61667882783783</v>
+        <v>0.7678506033088744</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3319676248761458</v>
+        <v>0.1227280881916291</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.77206455872093</v>
+        <v>1.976388260811818</v>
       </c>
       <c r="B114" t="n">
-        <v>0.02182885107865963</v>
+        <v>0.005456333060863899</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4787621824372564</v>
+        <v>0.1145424834441098</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08029218127482947</v>
+        <v>0.05877587074111187</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1455955563217932</v>
+        <v>0.07365880838918773</v>
       </c>
       <c r="F114" t="n">
-        <v>0.006144047504818188</v>
+        <v>1e-07</v>
       </c>
       <c r="G114" t="n">
-        <v>1.622073359403364</v>
+        <v>0.8595602960628889</v>
       </c>
       <c r="H114" t="n">
-        <v>1.694334306955521</v>
+        <v>0.76155043798309</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2109687292943936</v>
+        <v>0.1631228508288037</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.674215997809429</v>
+        <v>1.987950981114346</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0219376069931883</v>
+        <v>0.007147846754163332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5155151529078307</v>
+        <v>0.1059492572287568</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07492848420820844</v>
+        <v>0.03524812741235476</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1524176499177892</v>
+        <v>0.1642560205513188</v>
       </c>
       <c r="F115" t="n">
-        <v>0.006174658438159859</v>
+        <v>1e-07</v>
       </c>
       <c r="G115" t="n">
-        <v>1.814905754263437</v>
+        <v>0.8716260741766488</v>
       </c>
       <c r="H115" t="n">
-        <v>1.663721344200115</v>
+        <v>0.696937144268549</v>
       </c>
       <c r="I115" t="n">
-        <v>0.169615855802409</v>
+        <v>0.1303693947356536</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.728867473380438</v>
+        <v>1.967431642353392</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03827830835933831</v>
+        <v>0.01151198713902811</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4883042190229337</v>
+        <v>0.09532677576494689</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04597471203639442</v>
+        <v>0.04147991249104216</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1398133122434456</v>
+        <v>0.1065777237222678</v>
       </c>
       <c r="F116" t="n">
-        <v>0.006156563665382269</v>
+        <v>1e-07</v>
       </c>
       <c r="G116" t="n">
-        <v>1.636213568539463</v>
+        <v>1.080842535532557</v>
       </c>
       <c r="H116" t="n">
-        <v>1.78345396314799</v>
+        <v>0.5855500044954005</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1973052646703489</v>
+        <v>0.1278602418311746</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.824139011805477</v>
+        <v>1.959378771860057</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03250764538694478</v>
+        <v>0.005994306252458816</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4838046555746776</v>
+        <v>0.1254944447747457</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0569388376533465</v>
+        <v>0.03550685984914296</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1385249783629622</v>
+        <v>0.07556604242885895</v>
       </c>
       <c r="F117" t="n">
-        <v>0.006099832947611601</v>
+        <v>1e-07</v>
       </c>
       <c r="G117" t="n">
-        <v>1.588928388524692</v>
+        <v>0.9178538077085283</v>
       </c>
       <c r="H117" t="n">
-        <v>1.651276349630168</v>
+        <v>0.7644589984547772</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1815237926153706</v>
+        <v>0.1397414561438071</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3.757874979751552</v>
+        <v>2.002124773081211</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02178863753667286</v>
+        <v>2.651782601913582e-06</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4522794724051727</v>
+        <v>0.05608317728252887</v>
       </c>
       <c r="D118" t="n">
-        <v>0.04007213271376429</v>
+        <v>0.01588499588470772</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1513826430239806</v>
+        <v>0.09792441512412912</v>
       </c>
       <c r="F118" t="n">
-        <v>0.006132728818763049</v>
+        <v>1e-07</v>
       </c>
       <c r="G118" t="n">
-        <v>1.683848549468755</v>
+        <v>1.129756172163881</v>
       </c>
       <c r="H118" t="n">
-        <v>1.776549405025235</v>
+        <v>0.6344814405247631</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1684640628168234</v>
+        <v>0.05125722869011767</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.749945031921138</v>
+        <v>1.975953973126637</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02161770088105265</v>
+        <v>0.006756927460963544</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4910643763188421</v>
+        <v>0.1147465041144227</v>
       </c>
       <c r="D119" t="n">
-        <v>0.04543743773207982</v>
+        <v>0.0213032000343388</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1441872123655646</v>
+        <v>0.06846936742220211</v>
       </c>
       <c r="F119" t="n">
-        <v>0.006084616211798039</v>
+        <v>1e-07</v>
       </c>
       <c r="G119" t="n">
-        <v>1.874113575274304</v>
+        <v>0.88369325055107</v>
       </c>
       <c r="H119" t="n">
-        <v>1.516308126016273</v>
+        <v>0.8045022411255904</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2228565669025954</v>
+        <v>0.1476729838152978</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3.813673928129883</v>
+        <v>1.98848693021864</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01107742726197117</v>
+        <v>0.004320440932822388</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3470801903813601</v>
+        <v>0.0384955391065125</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0814913065806248</v>
+        <v>0.0249726767469913</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1292987117492336</v>
+        <v>0.07915288579289245</v>
       </c>
       <c r="F120" t="n">
-        <v>6.235805914243113e-06</v>
+        <v>1e-07</v>
       </c>
       <c r="G120" t="n">
-        <v>1.668248892146608</v>
+        <v>1.027348198987277</v>
       </c>
       <c r="H120" t="n">
-        <v>1.845850370177565</v>
+        <v>0.7768392907316248</v>
       </c>
       <c r="I120" t="n">
-        <v>0.128471667787985</v>
+        <v>0.07168053785131093</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3.652209566531377</v>
+        <v>1.763509839637726</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03854324693213719</v>
+        <v>0.03556749007467432</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5779442994249906</v>
+        <v>0.4107413662406622</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05786615039312312</v>
+        <v>1e-07</v>
       </c>
       <c r="E121" t="n">
-        <v>0.159143753573444</v>
+        <v>0.1024432997064551</v>
       </c>
       <c r="F121" t="n">
-        <v>0.006199175558665006</v>
+        <v>0.001569120250114347</v>
       </c>
       <c r="G121" t="n">
-        <v>1.658449268657279</v>
+        <v>0.6755186558754865</v>
       </c>
       <c r="H121" t="n">
-        <v>1.748746445118665</v>
+        <v>0.9888900255265523</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1844801108754942</v>
+        <v>0.03448257768367845</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6383,31 +6383,31 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.73842157204571</v>
+        <v>1.860120077386592</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0273583733972799</v>
+        <v>0.02045551489309154</v>
       </c>
       <c r="C122" t="n">
-        <v>0.488602909045025</v>
+        <v>0.2699750285378221</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06900425135104542</v>
+        <v>0.005006230145877508</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1459813924418747</v>
+        <v>0.2616572866452037</v>
       </c>
       <c r="F122" t="n">
-        <v>6.160329563905321e-06</v>
+        <v>0.008517948265746976</v>
       </c>
       <c r="G122" t="n">
-        <v>1.648056900996483</v>
+        <v>0.6763059211869817</v>
       </c>
       <c r="H122" t="n">
-        <v>1.753373791604742</v>
+        <v>0.8412593156871826</v>
       </c>
       <c r="I122" t="n">
-        <v>0.169222246294497</v>
+        <v>0.07727291125993617</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6432,80 +6432,80 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.729982463488616</v>
+        <v>1.883593785281717</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01647412124058565</v>
+        <v>0.01621637410532735</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5591847052060746</v>
+        <v>0.32179331745136</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06348162310725601</v>
+        <v>0.0144859510916405</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1953426042171925</v>
+        <v>0.09430678342031519</v>
       </c>
       <c r="F123" t="n">
-        <v>6.182507919606472e-06</v>
+        <v>3.042889507407909e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>1.828094452194444</v>
+        <v>0.7953115762348335</v>
       </c>
       <c r="H123" t="n">
-        <v>1.485957294714297</v>
+        <v>0.7432869406670951</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1273736088754899</v>
+        <v>0.1260773351102701</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.737466507519738</v>
+        <v>1.760355761112533</v>
       </c>
       <c r="B124" t="n">
-        <v>0.02735138408068825</v>
+        <v>0.04527617071540033</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4970478753108277</v>
+        <v>0.3856824551463502</v>
       </c>
       <c r="D124" t="n">
-        <v>0.05748885220915111</v>
+        <v>2.973884108541939e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1398630940952504</v>
+        <v>0.2422180051676892</v>
       </c>
       <c r="F124" t="n">
-        <v>0.006158755768087648</v>
+        <v>3.185909129038307e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>1.593437319232893</v>
+        <v>0.6504531799038429</v>
       </c>
       <c r="H124" t="n">
-        <v>1.807461323495075</v>
+        <v>0.8664826883680818</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1832772658557476</v>
+        <v>0.1021018668994067</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6530,129 +6530,129 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.75568429060452</v>
+        <v>1.785497899560068</v>
       </c>
       <c r="B125" t="n">
-        <v>0.02190253991909714</v>
+        <v>0.0414425484455185</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5232692915238492</v>
+        <v>0.4198146603897854</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0805632279603843</v>
+        <v>1e-07</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1886957744202699</v>
+        <v>0.2571169913474975</v>
       </c>
       <c r="F125" t="n">
-        <v>6.164788300318216e-06</v>
+        <v>0.003783116040462247</v>
       </c>
       <c r="G125" t="n">
-        <v>1.692651043938791</v>
+        <v>0.6736150334759913</v>
       </c>
       <c r="H125" t="n">
-        <v>1.551884122622019</v>
+        <v>0.7006937184613851</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2116809079140681</v>
+        <v>0.1623765081576252</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.81299987512088</v>
+        <v>1.90086455590719</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01103287140785113</v>
+        <v>0.01468508673088184</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4148209888232078</v>
+        <v>0.1095076332719336</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05797395041667687</v>
+        <v>1e-07</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1471755929493954</v>
+        <v>0.3988685783360255</v>
       </c>
       <c r="F126" t="n">
-        <v>6.210724128367638e-06</v>
+        <v>0.009589328305706324</v>
       </c>
       <c r="G126" t="n">
-        <v>1.672470003885081</v>
+        <v>0.7111906907766056</v>
       </c>
       <c r="H126" t="n">
-        <v>1.752004220289341</v>
+        <v>0.8457838477316967</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1421721404695339</v>
+        <v>0.07418029028359815</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.711569840000465</v>
+        <v>1.86550973628681</v>
       </c>
       <c r="B127" t="n">
-        <v>0.02764594097796814</v>
+        <v>0.009653902438035758</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5890215838992886</v>
+        <v>0.1115387709143131</v>
       </c>
       <c r="D127" t="n">
-        <v>0.06391876737990164</v>
+        <v>1e-07</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2028342562072798</v>
+        <v>0.5155158969650533</v>
       </c>
       <c r="F127" t="n">
-        <v>6.225081625119263e-06</v>
+        <v>0.01188788649500631</v>
       </c>
       <c r="G127" t="n">
-        <v>1.665379851048157</v>
+        <v>0.5996008034006912</v>
       </c>
       <c r="H127" t="n">
-        <v>1.567061976086023</v>
+        <v>0.9392361703635204</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2137512054025292</v>
+        <v>0.02099290945811611</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6677,50 +6677,2206 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.746126046310114</v>
+        <v>2.030006547810372</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02197455684444602</v>
+        <v>0.0005574696742809094</v>
       </c>
       <c r="C128" t="n">
-        <v>0.438925926605134</v>
+        <v>0.196064297176941</v>
       </c>
       <c r="D128" t="n">
-        <v>0.04041406245409788</v>
+        <v>0.6883882485617073</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1404604197802832</v>
+        <v>0.1106179127450504</v>
       </c>
       <c r="F128" t="n">
-        <v>0.006185058511008645</v>
+        <v>0.0003138158897080848</v>
       </c>
       <c r="G128" t="n">
-        <v>1.719988594285341</v>
+        <v>0.01933159294084419</v>
       </c>
       <c r="H128" t="n">
-        <v>1.807356554069263</v>
+        <v>0.01786386753160848</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1415846186796458</v>
+        <v>0.9281319146310197</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Jadeite</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Jadeite</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Jadeite</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.982261735781302</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0002836191357028432</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1030823803159026</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.8754146491592093</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1043589052994322</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.03034852825369712</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.01252186298233027</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.8398688988357229</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2.059416383883391</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0008316228656850503</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1975956994243511</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5873135612821105</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.10569763718428</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.001872578771809818</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0461416158371929</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.02171398736996457</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.045928953061717</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2.026224686671319</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.001647938434612095</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3519686322269451</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.4704913799044247</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1941837303951794</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.001546120772425944</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.03156647387627824</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.03872546589198543</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8855293977521178</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2.084782281529069</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.001693732550313522</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.181316933125484</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.6541487433046488</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.02102492126172191</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.000953451302781267</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.03468116029884936</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.02653439826379236</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9603365451304089</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2.042206151843512</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.001116747970506733</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1010341250380259</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8215377910923048</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0831756045949955</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.01438390726278735</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.01669998938918741</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8289027890792334</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2.031784326579222</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0005626819834849893</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.09696536111992378</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.7776122554066769</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.06974352099172788</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0006335001002442825</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.01505237828128442</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.01482540145343065</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.036871632279249</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Jadeite</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.810622148648303</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.05062685833526837</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3965627400176745</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2989044336142332</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.005383206906291305</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5027167506028459</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.7987398475555176</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.1471500628928796</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.832640708213784</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.02562347869268504</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.3781117487333186</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0005791078756735976</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.2055150606190887</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.003101978759876878</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7981984130038766</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.64981120857254</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.1129037084693108</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.852051853888957</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.0225392684591311</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3531024579465285</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1998341484071658</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.002475709192304275</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.816461936404445</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.6463157829655657</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.1105112531423761</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.814885837897584</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.04231058218939385</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.4090431987973328</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2425981405343757</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.002820535699486818</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.6635587593184552</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.688219317144414</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.149219193895281</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.829352739004922</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.02896164104180409</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.3917663119300042</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2157687755731927</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.003448785552922978</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.7548910395769647</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.6555931467106164</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.1299045441753413</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.869911765833926</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.01424000052985849</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.3427791247203443</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.003741315629147992</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1908711079488603</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.004624679058329445</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8975331807076615</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.5713681277510668</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.09457305133697107</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.795828066738576</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.02093946152969425</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3831503939898642</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.2461180270938407</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.003771978166697844</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.8232192607723692</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.6266603015683893</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.1820458187402702</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.845095262305623</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.01741663438311325</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.3720298385738632</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.00145267353308603</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.2298747528254539</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.004979977109157988</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.8387011183915877</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.5870472437037234</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.1082986928643604</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.841935763957088</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.02302105680032463</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.3706441240811328</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.2337127262397357</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.005620867493732803</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8200197888893883</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.5980600095384982</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.1129432270208876</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.881899773096124</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.02501845211040857</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.309198373035877</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.271935928533744</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.01439658338129419</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.7496946265280477</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.650074011120415</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.06734443627402688</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.986881110906479</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8.72758624280707e-05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.005924847424725118</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5446041836824826</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.06452422526585183</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4173686324798311</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9869300571958887</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.007497713402087726</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Hedenbergite</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Hedenbergite</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Hedenbergite</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Hedenbergite</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2.174541843383925</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.008132926427489695</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.04482988337540841</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0003165610031386113</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.006221395451488</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.001695652138729944</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0005968860448843092</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.002573985250960343</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.111685749846576</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2.080351248453707</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.01340461134258938</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.02286644847827466</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0003130516857216716</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.7914174201057237</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01173798189337222</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.206003920438936</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.4323023744290262</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.6725146665887087</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Aegirine-Augite</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Aegirine-Augite</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Aegirine-Augite</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Aegirine-Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.871929282147391</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.02611018637938598</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1038006207438769</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.02980044375794255</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1563618287098182</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.00442525944081766</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9919429893943571</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.8384886303208509</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.02460151665574464</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.906824917464263</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.03302347779582398</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.1627809850001597</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.007260545402725499</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.2009086534799035</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.004822478268274697</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.8167450411983638</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.8308351471507176</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.02385918755647892</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.897105168260392</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.01873155228847807</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.08564404019576564</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.01385281198316093</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1408240304273583</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.003124306802268056</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9744107341523685</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.8876698563877712</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.02610470572820837</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.917920957160239</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.006617328836100722</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1014140958504774</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4471997358978129</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.01360466490768461</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.6869897753504851</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.8309876234465137</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.04004096925821703</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.88402601171756</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.01222357352748749</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1701194699616856</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.005974947083978315</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.28145207549303</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.02432355246851265</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7796041990670551</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.8384584710265267</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.03663158237518677</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.951246935197464</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.01104776799920519</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.09896365484779053</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3185386114828425</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.01817893649280774</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.7173797910405508</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.8597360000729993</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.02482245870591512</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.920290814645743</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.008130683655447675</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1014459749099002</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4881529500035121</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.01536563699212452</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.6421575206633501</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.8296056204514143</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.02993539309017071</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.914224767520099</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.01473812355722681</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1451936177183662</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.000893582054190601</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.2615238449654184</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.01595484289279869</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.7975089024448063</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.8278968574558305</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.03579240416543979</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.895222464056856</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.01367663463364549</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.1178427473315457</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.2598087258204868</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.01360152307114132</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.7667364742394569</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.863537805322092</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.06976178016073785</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.934323179047798</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.008817699763211138</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.06728704949390947</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.2840551473671332</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.01242536105578811</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.8353147744358095</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.8567926049898172</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.03958615443273005</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.836979692521313</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01799125996732384</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1748443396201486</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.3014025205224926</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.01359528861027955</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7371871287932847</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9450182217924122</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.05186918739464642</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.902008538263343</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.02477369360145855</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1913769927436753</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.002394064409507539</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.3122239835937912</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.008976627813258559</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.7815011629091533</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.7239047962320836</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.0491702315394319</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.869510694671955</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.04588730884181701</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.2183583476491449</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.2588023233700754</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.007103607624929315</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.7478884750238278</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.8005720086306956</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.04730516056797477</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.917314594050415</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.02052551138883652</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.195135271379365</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.002659426363249766</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.2443776917032516</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.006014622925941646</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.778908859096572</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.7756619203911361</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.03913098925639854</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.945106804850564</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.02861395190124351</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1169982253852478</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.001804277890052158</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.2536371570392466</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.007731660268439249</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8074138185976987</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.789367402190609</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.0294980817863764</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.010231845650146</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.000857481492426789</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.1253783228549145</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.003847181601542e-09</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.2859644203802635</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0003218008439068728</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.6400152020784705</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.7323292624272889</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.2622463423935645</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Omphacite</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Omphacite</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Omphacite</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Omphacite</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.988848409373769</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.002467660169810417</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1099622788293959</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.04783274051364372</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.06766464506514701</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.00185215688532932</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.855176810333258</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.7887982447013453</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.131435211198115</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Diopside</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.980986286431544</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.007683424196059311</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.1061829182979113</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.01989849381292683</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1500817462248524</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.003089444927079545</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.8749055460021756</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.7300378471599898</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.1449794947558273</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.984729124339464</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.00137463234142351</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.07106592638760727</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.03669396210875565</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.07151520738205706</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.001857169239428596</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9501045099094053</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.7948484200439071</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.09565468875841983</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.989631583381412</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.002195143983277563</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.05459308919886116</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.02681824211435534</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0945585296085675</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.002780348351389548</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.071143351845323</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.6928727550956096</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.06435323125686178</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.994725697023753</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.009198119487184148</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1072263629899229</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.006254853537220828</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.1726227433018412</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.003654980415151947</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.036776024303691</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.5501993355465947</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.1164374115492005</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.835348275576035</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.02444288758313216</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.3589919508381156</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0005838135465625353</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.2053323962002671</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.003439903042183293</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.8498171281162755</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.6305650265831718</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.1037991463255039</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Augite</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2.179238568043248</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.002744115346762415</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.06687269306221179</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.8081978816358982</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0003432760715207082</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.04773042378304122</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.001302725253783073</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.356302573764838</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2.085064755522257</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.007215600704286</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.09583854063958468</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.9687088476945119</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.001766031065678613</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.05905771060973678</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.01742532903877064</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.248383136777395</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2.207685770230993</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.04242254584839156</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.9630642304920186</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.115860820546817</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Aegirine</t>
         </is>
       </c>
     </row>

--- a/processing_directory/results/classified_result.xlsx
+++ b/processing_directory/results/classified_result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,20 +482,15 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Polynomial Regression</t>
+          <t>Linear Regression</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Artificial Neutral Network</t>
+          <t>Extra Tree</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Extra Tree</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Random Forest</t>
         </is>
@@ -503,276 +498,251 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.988194501024752</v>
+        <v>1.88093409443547</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001617299704222268</v>
+        <v>0.01503907161155259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06249739225211865</v>
+        <v>0.2874364115366195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04192521575004616</v>
+        <v>0.02155231546523368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07760773571285765</v>
+        <v>0.07720724331536218</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003338225114432116</v>
+        <v>0.002770668233992473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9844030209475577</v>
+        <v>0.8013732798213492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7466732394955412</v>
+        <v>0.7909335273075009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09586813625013677</v>
+        <v>0.1416479640133868</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.983759317588233</v>
+        <v>1.892376159398148</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002715916390953724</v>
+        <v>0.01552773217345358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0663746002999421</v>
+        <v>0.2846557324923776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04937837951889783</v>
+        <v>0.02032665231713647</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06883625503101493</v>
+        <v>0.07813018878830069</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003057736619303314</v>
+        <v>0.002453617390737113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9767903745354983</v>
+        <v>0.7735487918734733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7492344550984121</v>
+        <v>0.8108699128199658</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1042938274584583</v>
+        <v>0.1193542913659186</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.993992807916761</v>
+        <v>1.904724012091132</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002166592935075371</v>
+        <v>0.01399459964250293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0666113004425498</v>
+        <v>0.2686774663865503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04923883544770419</v>
+        <v>0.02537741073353416</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08068413019115191</v>
+        <v>0.0683288816674863</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00335400494868288</v>
+        <v>0.001544699425986793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9622235260591738</v>
+        <v>0.7884363716394224</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7289888135867013</v>
+        <v>0.7933376487967864</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1095829353118404</v>
+        <v>0.1379052675691879</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.980724254822342</v>
+        <v>1.897332038324749</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01159725766259319</v>
+        <v>0.01383957920386079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08112393412072247</v>
+        <v>0.2601746960522583</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0521529654496211</v>
+        <v>0.02195926342707679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06805792433723395</v>
+        <v>0.09592809524421564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003036480726668391</v>
+        <v>0.002749659374099989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9459506127297186</v>
+        <v>0.8221830906069201</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7282775254584819</v>
+        <v>0.7775931211356374</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1341529110101534</v>
+        <v>0.109102134932503</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.998279790734652</v>
+        <v>1.889801173749878</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0008102694452119048</v>
+        <v>0.01501710922214069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.071508198405715</v>
+        <v>0.2737565684376911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04144149339452163</v>
+        <v>0.01951222955866688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06695439072124917</v>
+        <v>0.09803748557543461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002736745389931155</v>
+        <v>0.002459219621049183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9580089895370955</v>
+        <v>0.8213036773899596</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7504766790356531</v>
+        <v>0.7695576653737408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1037171124453208</v>
+        <v>0.1147009977415559</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.989320732437793</v>
+        <v>1.910137189893331</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0008178032504103402</v>
+        <v>0.008048970949275142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08925545907767214</v>
+        <v>0.2433652654865677</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02463771135668098</v>
+        <v>0.02763245776850438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07757709893690769</v>
+        <v>0.08589691863889884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002762191378012398</v>
+        <v>0.003322733182731367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9696173463863733</v>
+        <v>0.8554280661687419</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7430896893019584</v>
+        <v>0.7542893533541722</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1067891443846515</v>
+        <v>0.1140929976201244</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -785,11 +755,6 @@
         </is>
       </c>
       <c r="L7" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -797,31 +762,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.911921063116368</v>
+        <v>1.876565906558674</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01472038672677846</v>
+        <v>0.009040922209742038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1450188821375677</v>
+        <v>0.3064488025808758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008925066585796658</v>
+        <v>0.0195786182912006</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2684299058488477</v>
+        <v>0.1047666909552686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01593564178201137</v>
+        <v>0.003392932002016098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7965491276044894</v>
+        <v>0.832784240528895</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8269005117451711</v>
+        <v>0.7323771559406284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03574932922434869</v>
+        <v>0.129918966439371</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -834,11 +799,6 @@
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -846,31 +806,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.893049551815701</v>
+        <v>1.874548928487983</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01366095408564816</v>
+        <v>0.0165942158939578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1177076381540933</v>
+        <v>0.2927821276211591</v>
       </c>
       <c r="D9" t="n">
-        <v>1e-07</v>
+        <v>0.02001240462202684</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2663899753164103</v>
+        <v>0.0991897365005025</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01358592864012325</v>
+        <v>0.003369017481011282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7658573948162167</v>
+        <v>0.7956491522216023</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8625477411457378</v>
+        <v>0.7977282497782657</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06968179681896616</v>
+        <v>0.1051656962409064</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -883,11 +843,6 @@
         </is>
       </c>
       <c r="L9" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -895,80 +850,75 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.931508157618943</v>
+        <v>1.917294565317629</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008804867360613929</v>
+        <v>0.003820188838698664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06718912661925153</v>
+        <v>0.1885195131471291</v>
       </c>
       <c r="D10" t="n">
-        <v>1e-07</v>
+        <v>0.02007378044481303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.292373564589554</v>
+        <v>0.08948387933060054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01240727842202133</v>
+        <v>0.002764922631977287</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8340991404531602</v>
+        <v>0.867841028668341</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8555457143102986</v>
+        <v>0.8487526709705642</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03952854468363477</v>
+        <v>0.07032548516907626</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.833989622271395</v>
+        <v>1.868332554364068</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01796197541322352</v>
+        <v>0.01409082398776712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1745597437368119</v>
+        <v>0.2665959911064315</v>
       </c>
       <c r="D11" t="n">
-        <v>1e-07</v>
+        <v>0.02676919023785728</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3106781847331588</v>
+        <v>0.0903691698827444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01357315942279961</v>
+        <v>0.002745738884244846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7359872019179901</v>
+        <v>0.8365826348720617</v>
       </c>
       <c r="H11" t="n">
-        <v>0.943480006164817</v>
+        <v>0.8119896735311321</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0517847593986552</v>
+        <v>0.1033595721935849</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -981,11 +931,6 @@
         </is>
       </c>
       <c r="L11" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -993,178 +938,163 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.899237501220591</v>
+        <v>1.90954520976201</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02473760079678686</v>
+        <v>0.01066146645939596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1910981755221147</v>
+        <v>0.2188437572550682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00239057649605814</v>
+        <v>0.02729293728715101</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3205105068744538</v>
+        <v>0.09055962048695895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008963549760405943</v>
+        <v>0.00338554586231851</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7803625935348264</v>
+        <v>0.8212206948155312</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7228501390286955</v>
+        <v>0.8214980133200906</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04909859540833395</v>
+        <v>0.1056816385705936</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.872029647141474</v>
+        <v>1.888492109450964</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04594913675767547</v>
+        <v>0.01769873674188677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2186525606218861</v>
+        <v>0.2852522196580635</v>
       </c>
       <c r="D13" t="n">
-        <v>1e-07</v>
+        <v>0.02057290061502207</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2649728996102627</v>
+        <v>0.07989123223438893</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007113178926136795</v>
+        <v>0.003019131380108057</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7488961694577002</v>
+        <v>0.8023865256381379</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7877445027121494</v>
+        <v>0.7806402675262987</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04736889887734805</v>
+        <v>0.1230195906304245</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.915671855570181</v>
+        <v>1.900428108657973</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02050792530907185</v>
+        <v>0.01262554205454681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1949680811748256</v>
+        <v>0.2614307716363909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002657147789855595</v>
+        <v>0.02336423437139384</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2517096701483491</v>
+        <v>0.09153336905563335</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006009469649293566</v>
+        <v>0.001854074281808625</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7782414967558253</v>
+        <v>0.81853460917705</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7725967287240866</v>
+        <v>0.7712426010647356</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03909746216490266</v>
+        <v>0.1223754341549172</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.944425101450296</v>
+        <v>1.887452749452338</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02860392354277109</v>
+        <v>0.01445916901480805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1169572209078219</v>
+        <v>0.2860848590035042</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001803645543093313</v>
+        <v>0.02166779079024692</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2556510901967741</v>
+        <v>0.09048761672506585</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00772895054623707</v>
+        <v>0.003617549635960688</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8071308435218885</v>
+        <v>0.8330241127556507</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7890907518592275</v>
+        <v>0.7432469536046465</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02948774356607661</v>
+        <v>0.1249062271843639</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1177,11 +1107,6 @@
         </is>
       </c>
       <c r="L15" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -1189,31 +1114,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.986606494736215</v>
+        <v>1.881264909423339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0008163900263178726</v>
+        <v>0.012986835870717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05286388118121163</v>
+        <v>0.2748781021188144</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03946661290996503</v>
+        <v>0.020327214407044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05566218500800509</v>
+        <v>0.09491393197844071</v>
       </c>
       <c r="F16" t="n">
-        <v>3.063797898223161e-06</v>
+        <v>0.002488737886544971</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9366656632750279</v>
+        <v>0.8213061953737871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8557506328188276</v>
+        <v>0.7984712165860303</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07714806933439243</v>
+        <v>0.1018350949645482</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1226,11 +1151,6 @@
         </is>
       </c>
       <c r="L16" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -1238,80 +1158,75 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.993304033157236</v>
+        <v>1.882693943179192</v>
       </c>
       <c r="B17" t="n">
-        <v>0.005076970002389409</v>
+        <v>0.01661503766324461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09669942699839797</v>
+        <v>0.2807749205515011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0213421870920043</v>
+        <v>0.02032376562005882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1149550231467897</v>
+        <v>0.0893222188552506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003008393728466476</v>
+        <v>0.002759927556771172</v>
       </c>
       <c r="G17" t="n">
-        <v>1.085458448611215</v>
+        <v>0.8052832467504122</v>
       </c>
       <c r="H17" t="n">
-        <v>0.570078331619928</v>
+        <v>0.7870915797149929</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1019221680158817</v>
+        <v>0.1270591691833224</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.987259852214297</v>
+        <v>1.893174712914135</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001902073197958444</v>
+        <v>0.01861405080993781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.072792430538036</v>
+        <v>0.2903230885461046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05654168025144737</v>
+        <v>0.01812370004716828</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0589019657893998</v>
+        <v>0.07759578920659779</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0006118470351154692</v>
+        <v>0.002465503637337991</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9121178141399903</v>
+        <v>0.7621082314664559</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7956535787867689</v>
+        <v>0.7999835616269282</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1155497663076253</v>
+        <v>0.1396860748395587</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1324,11 +1239,6 @@
         </is>
       </c>
       <c r="L18" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -1336,472 +1246,427 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.986609097992567</v>
+        <v>1.88858279829085</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002168750178309125</v>
+        <v>0.01576545961687986</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0989546908238198</v>
+        <v>0.2840307765175074</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06552721510742783</v>
+        <v>0.02342431120781495</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05695703022387814</v>
+        <v>0.08369979681735824</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001526065672627281</v>
+        <v>0.001836172892073895</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8874378129359599</v>
+        <v>0.8009362632070565</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7536523859999752</v>
+        <v>0.7796682217912346</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1488178704479493</v>
+        <v>0.1267982206116963</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.987695003961892</v>
+        <v>1.899085725098292</v>
       </c>
       <c r="B20" t="n">
-        <v>0.002991801730519984</v>
+        <v>0.01392384320017938</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09416582635437817</v>
+        <v>0.2463612254049138</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03944514386352246</v>
+        <v>0.03184830038067467</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06530701996361227</v>
+        <v>0.08194429134563563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002449705002856347</v>
+        <v>0.002766401016599633</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9167539362183122</v>
+        <v>0.8228610541523238</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7685170658082624</v>
+        <v>0.7920483636961358</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1268745865625932</v>
+        <v>0.1111736785814646</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.99541280482644</v>
+        <v>1.90762995619159</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00270968060841811</v>
+        <v>0.006780964864711002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1337179104625651</v>
+        <v>0.2405076201601048</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06151006536910363</v>
+        <v>0.03392132289126037</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07259406863719485</v>
+        <v>0.06151027159941507</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002135501208874334</v>
+        <v>0.001526880919464156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.848366549300996</v>
+        <v>0.788478662500845</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6923285899274466</v>
+        <v>0.8502433663592825</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1857614880245545</v>
+        <v>0.1097506444654793</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.996672904919877</v>
+        <v>1.91940196286618</v>
       </c>
       <c r="B22" t="n">
-        <v>2.704557146574405e-06</v>
+        <v>0.003294876365557943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07796055276739539</v>
+        <v>0.1634565762633482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0389395621288772</v>
+        <v>0.02885573966266036</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05652232312245836</v>
+        <v>0.06684485471394902</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002131463404962366</v>
+        <v>0.002163912000022316</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9292950019609959</v>
+        <v>0.8786962026318426</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7896265596374412</v>
+        <v>0.8923705748856046</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1045546524571203</v>
+        <v>0.05095024946711556</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.989026384843437</v>
+        <v>1.912844971599807</v>
       </c>
       <c r="B23" t="n">
-        <v>0.005291225277545722</v>
+        <v>0.009038549864813578</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1268260911524278</v>
+        <v>0.2308490110878763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06478232219591354</v>
+        <v>0.03655635393433525</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06911305822053992</v>
+        <v>0.09560496752869756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002382867653220119</v>
+        <v>0.002466939413857491</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8398410806365184</v>
+        <v>0.8092278256203042</v>
       </c>
       <c r="H23" t="n">
-        <v>0.714768346900588</v>
+        <v>0.7809453005778199</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1956879549656667</v>
+        <v>0.1320025637920166</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.985699933793682</v>
+        <v>1.893035910610562</v>
       </c>
       <c r="B24" t="n">
-        <v>2.714127899745378e-06</v>
+        <v>0.01389541883561841</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1028979208909186</v>
+        <v>0.2548218833476042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05020157136308151</v>
+        <v>0.02806091805148776</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06517034983859971</v>
+        <v>0.08662305388191463</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002750150728700794</v>
+        <v>0.003067504044065238</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9024655068198945</v>
+        <v>0.8465563465120232</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7545392689339611</v>
+        <v>0.7667612032076233</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1433970152353252</v>
+        <v>0.1158620881026387</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.979725271525965</v>
+        <v>1.897252644049314</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0008103162217982137</v>
+        <v>0.01522760960868283</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1040948658661026</v>
+        <v>0.2854167353461035</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04541795703911158</v>
+        <v>0.02514784144223218</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07446478691503237</v>
+        <v>0.07889513186426132</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002736903381334748</v>
+        <v>0.003061451512804757</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9088230016999682</v>
+        <v>0.7958524331792834</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7570596450481981</v>
+        <v>0.7667973825425495</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1385295093957323</v>
+        <v>0.1268464225743531</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.990888639439565</v>
+        <v>1.929940426413693</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002993342015372965</v>
+        <v>0.002702732180365749</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1095614330445568</v>
+        <v>0.1562393067033454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05805425128460332</v>
+        <v>0.01988270123619964</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06685315718496818</v>
+        <v>0.08562761830034449</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003676449295845279</v>
+        <v>0.002434314454627746</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8778623086678433</v>
+        <v>0.9067098142994577</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7305446005393252</v>
+        <v>0.849526772519745</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1620061784601707</v>
+        <v>0.05015236878878795</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.983845607136869</v>
+        <v>1.913192102245749</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002467330778390685</v>
+        <v>0.00218407867295848</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09706311624444874</v>
+        <v>0.1813447854615863</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05992699984014017</v>
+        <v>0.02180550843219412</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06186526771134205</v>
+        <v>0.09286791803080927</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003703819306636819</v>
+        <v>0.002766333135286348</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8903733782086861</v>
+        <v>0.903988877076873</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7625333355512836</v>
+        <v>0.8332439832986821</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1427224123230903</v>
+        <v>0.05980715698301574</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.988452454568615</v>
+        <v>1.87807721871062</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00136739189827814</v>
+        <v>0.01419441942661232</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1002535545687979</v>
+        <v>0.2672730883498026</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04627252600362754</v>
+        <v>0.03155595365092292</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07296258824518699</v>
+        <v>0.1180401855248302</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002463182913424219</v>
+        <v>0.003380575608955921</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8887409512098706</v>
+        <v>0.8319150317895686</v>
       </c>
       <c r="H28" t="n">
-        <v>0.765345048856065</v>
+        <v>0.7573122242021798</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1374401279275654</v>
+        <v>0.1090440390811795</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1814,11 +1679,6 @@
         </is>
       </c>
       <c r="L28" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -1826,129 +1686,119 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.988990139321712</v>
+        <v>1.889657905992051</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003255252880484906</v>
+        <v>0.01712119728193205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1041191213600273</v>
+        <v>0.286955400747326</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04760957350760889</v>
+        <v>0.01856441519000857</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06634254969793808</v>
+        <v>0.09727818199059252</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00122165100159262</v>
+        <v>0.00336565770748436</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8928560877522057</v>
+        <v>0.8018564476455597</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7529862558974827</v>
+        <v>0.7640335940856399</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1461186709093286</v>
+        <v>0.1197693337736283</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.977786107762643</v>
+        <v>1.921465248856418</v>
       </c>
       <c r="B30" t="n">
-        <v>0.008375698827648244</v>
+        <v>0.01307187754396284</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1117439991430544</v>
+        <v>0.2291036158023054</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05792470894922825</v>
+        <v>0.01516865022648991</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06667734907944284</v>
+        <v>0.08325214252215535</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00334607539337331</v>
+        <v>0.002452846657476805</v>
       </c>
       <c r="G30" t="n">
-        <v>0.878034443445146</v>
+        <v>0.8148581742679462</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7403484146729837</v>
+        <v>0.7989795764826713</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1643339533358108</v>
+        <v>0.1270372984526486</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.991503482842805</v>
+        <v>1.871273690136614</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002964108365772111</v>
+        <v>0.01843059654036546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0747197796795913</v>
+        <v>0.2980770338690908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02208870874187234</v>
+        <v>0.02107834619988467</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1039433856404017</v>
+        <v>0.1099738263243041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005460816400958871</v>
+        <v>0.003661806605603531</v>
       </c>
       <c r="G31" t="n">
-        <v>1.040156507145456</v>
+        <v>0.8308624636224823</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6712169664309779</v>
+        <v>0.7361272534067703</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0861150421326865</v>
+        <v>0.1201475357289855</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1961,11 +1811,6 @@
         </is>
       </c>
       <c r="L31" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -1973,325 +1818,295 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.986440699585819</v>
+        <v>1.896041861660701</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006749834143288365</v>
+        <v>0.01851414024442366</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09474625122901123</v>
+        <v>0.2798075315646796</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04312916149761693</v>
+        <v>0.02146002551201793</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09094141621718098</v>
+        <v>0.09503646555587787</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003951665026769347</v>
+        <v>0.003065337616519911</v>
       </c>
       <c r="G32" t="n">
-        <v>1.009562798503354</v>
+        <v>0.7898489752692008</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6325439690706549</v>
+        <v>0.7604032324848439</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1349928492797298</v>
+        <v>0.1389363124759457</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.980084933832774</v>
+        <v>1.898850836792755</v>
       </c>
       <c r="B33" t="n">
-        <v>0.009109259160584693</v>
+        <v>0.009300965064774906</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1082891067389284</v>
+        <v>0.2447068511777222</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01745702221380803</v>
+        <v>0.02299923639669737</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1146649965452668</v>
+        <v>0.08879692760388046</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003016392270440865</v>
+        <v>0.003079872757427045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9688919678966879</v>
+        <v>0.8450911566698739</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6776708840258149</v>
+        <v>0.7994626462622321</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1311939122989821</v>
+        <v>0.09024330808390561</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.978309744953041</v>
+        <v>1.944314099349429</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01235769495201091</v>
+        <v>0.002185204320922963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09048550678239609</v>
+        <v>0.1228131539809557</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01976296096770291</v>
+        <v>0.01865905970314185</v>
       </c>
       <c r="E34" t="n">
-        <v>0.115871693999085</v>
+        <v>0.06923136626690612</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003327024524751559</v>
+        <v>0.002767758870220427</v>
       </c>
       <c r="G34" t="n">
-        <v>1.033801624425478</v>
+        <v>0.8995833918979246</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6458383134656804</v>
+        <v>0.8998071102420669</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1031624977246189</v>
+        <v>0.04505447971744676</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.981570595780553</v>
+        <v>1.857180434474008</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0008152111553331211</v>
+        <v>0.01796128004119808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1094064450914236</v>
+        <v>0.2928943607299146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05825770347335953</v>
+        <v>0.01973407495475242</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06434198490296003</v>
+        <v>0.09196719147147236</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002141561631892891</v>
+        <v>0.002451133772545565</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8943897995835732</v>
+        <v>0.8137498738413206</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7415084221815381</v>
+        <v>0.817025627930837</v>
       </c>
       <c r="I35" t="n">
-        <v>0.160376334369585</v>
+        <v>0.1094142501331062</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.982134793347501</v>
+        <v>1.895814053287255</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008934048515391488</v>
+        <v>0.01075185991170297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1115452392903612</v>
+        <v>0.2379211103944769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06373187843087928</v>
+        <v>0.01525427950700397</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08035476213193608</v>
+        <v>0.09681320728202886</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002438417305604901</v>
+        <v>0.0036315207515746</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8932169387616982</v>
+        <v>0.8405023859520104</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6990430061414454</v>
+        <v>0.8203846035052706</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1597812411272009</v>
+        <v>0.08867261512864791</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.975244007723173</v>
+        <v>1.950029764784178</v>
       </c>
       <c r="B37" t="n">
-        <v>2.721593277392583e-06</v>
+        <v>0.003003952318114642</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07418795436443824</v>
+        <v>0.1317686178329392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04433321793069049</v>
+        <v>0.03673538987144035</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05839108219210931</v>
+        <v>0.08135816327485884</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00214488959174015</v>
+        <v>0.002152197229043929</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9556421284719993</v>
+        <v>0.8869265365980462</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8042907033727535</v>
+        <v>0.8151984630767911</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09960187388241483</v>
+        <v>0.1104983882470695</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.972986990387259</v>
+        <v>1.903754580442421</v>
       </c>
       <c r="B38" t="n">
-        <v>0.003539863414633939</v>
+        <v>0.0144090775198292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.127548473543758</v>
+        <v>0.2581034779719715</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0732584038744639</v>
+        <v>0.0268573090022252</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06144763643532903</v>
+        <v>0.07132442891584638</v>
       </c>
       <c r="F38" t="n">
-        <v>0.002452544059005679</v>
+        <v>0.003673036402338911</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8347219085341158</v>
+        <v>0.7854638067595004</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7453637378740486</v>
+        <v>0.8076930326558185</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2000064282128873</v>
+        <v>0.133828810163686</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2304,11 +2119,6 @@
         </is>
       </c>
       <c r="L38" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -2316,570 +2126,515 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.98321515132602</v>
+        <v>1.882250979319891</v>
       </c>
       <c r="B39" t="n">
-        <v>2.747673437810312e-06</v>
+        <v>0.01917256160712544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07834250025628171</v>
+        <v>0.290061255362051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0412929097406168</v>
+        <v>0.02360316750098494</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06444861109120043</v>
+        <v>0.08372994146187675</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001856094329707096</v>
+        <v>0.003083654979072121</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9364873344343968</v>
+        <v>0.7739447762384032</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8010408837128321</v>
+        <v>0.7996642619316296</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1005563268752031</v>
+        <v>0.1312958464739554</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.976140323097632</v>
+        <v>1.906328363502157</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001080228326105708</v>
+        <v>0.006041970997003927</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06684571627703446</v>
+        <v>0.2194254793812989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0499508142251745</v>
+        <v>0.03088261498786807</v>
       </c>
       <c r="E40" t="n">
-        <v>0.05763984316982285</v>
+        <v>0.0677758419985787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002432367742205968</v>
+        <v>0.002782800950831831</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9498658482679598</v>
+        <v>0.8603916187219305</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8084627339454534</v>
+        <v>0.8131715372141056</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1016165315246553</v>
+        <v>0.1090015359159053</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.989817674118585</v>
+        <v>1.904393769072626</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0005484351716303225</v>
+        <v>0.01001312533327941</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08334085609468125</v>
+        <v>0.2285165284011257</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04351576115587714</v>
+        <v>0.03526662885740579</v>
       </c>
       <c r="E41" t="n">
-        <v>0.06340516394068528</v>
+        <v>0.0851373945696486</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002469840843692612</v>
+        <v>0.002437482988498313</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9199423387872034</v>
+        <v>0.8124355277825521</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7775678352057982</v>
+        <v>0.8182568441452992</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1265040050635521</v>
+        <v>0.1115947727415685</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.991300835865064</v>
+        <v>1.874521022706215</v>
       </c>
       <c r="B42" t="n">
-        <v>2.73370363860549e-06</v>
+        <v>0.01588203662423285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08822254370095597</v>
+        <v>0.2904208503117646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04079567368139312</v>
+        <v>0.02043200011629682</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06807151885443316</v>
+        <v>0.09314630205202101</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002462210029713436</v>
+        <v>0.003082917321475531</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9154749837592159</v>
+        <v>0.8166257036036922</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7732187899122522</v>
+        <v>0.7780236951635283</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1275222441828361</v>
+        <v>0.1199728738909487</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.975117739419003</v>
+        <v>1.885661653772383</v>
       </c>
       <c r="B43" t="n">
-        <v>0.001891139010631768</v>
+        <v>0.01893657539482482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0981915968001497</v>
+        <v>0.2777447080289488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06274686340193314</v>
+        <v>0.02105472361229439</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06306823830136386</v>
+        <v>0.07444030925973162</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001824989381935756</v>
+        <v>0.003089840268365672</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9004503074330322</v>
+        <v>0.7863737165622829</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7587593367534368</v>
+        <v>0.8110398169800282</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1580546261543665</v>
+        <v>0.1329738187844086</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.984729125311873</v>
+        <v>1.894141201657212</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001374632342097005</v>
+        <v>0.01387433403638037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07106592642242568</v>
+        <v>0.2565661668559745</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03669396212673368</v>
+        <v>0.02372981741549872</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07151520741709562</v>
+        <v>0.1022173605124952</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001857169240338508</v>
+        <v>0.003062849437558148</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9501045103749046</v>
+        <v>0.8231696563442814</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7948484204333395</v>
+        <v>0.7810956554611652</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09565468880528541</v>
+        <v>0.1044682163778734</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.97281812449816</v>
+        <v>1.897081174015498</v>
       </c>
       <c r="B45" t="n">
-        <v>0.002147462355552323</v>
+        <v>0.01751150283563225</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09419861451629018</v>
+        <v>0.3021993223523908</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08011765820460179</v>
+        <v>0.01984115133409656</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06893083576403218</v>
+        <v>0.07847460576119884</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002417738007333073</v>
+        <v>0.003388596112053094</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9026632483793109</v>
+        <v>0.7726212611899839</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7324918577272608</v>
+        <v>0.7622264576723067</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1618852838961533</v>
+        <v>0.1403306259880611</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.981693360904897</v>
+        <v>1.881780499650469</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0005366601235122829</v>
+        <v>0.01621313238859699</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09500330066726541</v>
+        <v>0.2827828488470265</v>
       </c>
       <c r="D46" t="n">
-        <v>0.052451342545588</v>
+        <v>0.02726222172847347</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06741301662444821</v>
+        <v>0.08591078819144614</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002114711119374651</v>
+        <v>0.001825368733122768</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9081666358852577</v>
+        <v>0.7972944154933255</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7616375608829535</v>
+        <v>0.7912441518657837</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1466091692407408</v>
+        <v>0.121873608052276</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.996527877569808</v>
+        <v>1.862919291576846</v>
       </c>
       <c r="B47" t="n">
-        <v>0.005501838586498727</v>
+        <v>0.01908640233532904</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1284266155374168</v>
+        <v>0.3212216431333918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03382501867184752</v>
+        <v>0.0191988480384841</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1256856405615683</v>
+        <v>0.08880954530366167</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002787430430097472</v>
+        <v>0.003376777129731128</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8154884015373639</v>
+        <v>0.7882966339192237</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7095255250861451</v>
+        <v>0.7723827070111469</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1963873724492467</v>
+        <v>0.1426520488336659</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.812122739214183</v>
+        <v>1.863046163122174</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03097712684413607</v>
+        <v>0.02168373937030528</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3781770651013301</v>
+        <v>0.3040311892239901</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0004399301719393503</v>
+        <v>0.01766079360647558</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2331380351758522</v>
+        <v>0.08948837723198892</v>
       </c>
       <c r="F48" t="n">
-        <v>0.004555854397056091</v>
+        <v>0.02075089259607844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7797324594173843</v>
+        <v>0.7906064396708398</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6746828370969418</v>
+        <v>0.7685766319113845</v>
       </c>
       <c r="I48" t="n">
-        <v>0.107526445423109</v>
+        <v>0.1536819327565366</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.99594390918029</v>
+        <v>1.921270638964078</v>
       </c>
       <c r="B49" t="n">
-        <v>0.009198761938788595</v>
+        <v>0.006884098806195273</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1072338523195666</v>
+        <v>0.2187136911397642</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006255290413551493</v>
+        <v>0.04861728498475019</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1714317703380077</v>
+        <v>0.07285343531836476</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003655235700814979</v>
+        <v>0.0009300622543780292</v>
       </c>
       <c r="G49" t="n">
-        <v>1.034703974737442</v>
+        <v>0.822296959699559</v>
       </c>
       <c r="H49" t="n">
-        <v>0.551008405881583</v>
+        <v>0.7749358468433104</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1164455442334923</v>
+        <v>0.1433555123141432</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.990634130274268</v>
+        <v>1.87802399011779</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002194238866902345</v>
+        <v>0.01694655425238671</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05457057901302186</v>
+        <v>0.3057376005763042</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02680718423829929</v>
+        <v>0.02010768582269653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09451954060638031</v>
+        <v>0.09358503887746802</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002779201939654909</v>
+        <v>0.001230930085047627</v>
       </c>
       <c r="G50" t="n">
-        <v>1.070701690890348</v>
+        <v>0.8384342655927477</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6914151750631401</v>
+        <v>0.727173950744369</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06432669670429826</v>
+        <v>0.1176419268679101</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2892,11 +2647,6 @@
         </is>
       </c>
       <c r="L50" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -2904,80 +2654,75 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.960194639647376</v>
+        <v>1.867689462293716</v>
       </c>
       <c r="B51" t="n">
-        <v>0.007925280068825676</v>
+        <v>0.01781004930901475</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1374609070704866</v>
+        <v>0.324085530304012</v>
       </c>
       <c r="D51" t="n">
-        <v>0.003569539295776644</v>
+        <v>0.01842918260504189</v>
       </c>
       <c r="E51" t="n">
-        <v>0.298913950494884</v>
+        <v>0.1029519216348645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003824031944019316</v>
+        <v>0.002467887910185897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6842656888806234</v>
+        <v>0.8377723777687522</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8102599425283172</v>
+        <v>0.7160767252989474</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1094217830860231</v>
+        <v>0.1101621250255647</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.83434406227958</v>
+        <v>1.854405859374725</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02443442901915865</v>
+        <v>0.01911446035780607</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3610426760445904</v>
+        <v>0.3340996030695526</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0005836115154311722</v>
+        <v>0.01750524407594292</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2068046584079459</v>
+        <v>0.09713594543582092</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003438712649278771</v>
+        <v>0.00922293046632635</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8473222084225968</v>
+        <v>0.8181334292349526</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6287650181179484</v>
+        <v>0.7400729212725804</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1073412684772598</v>
+        <v>0.1196379228243431</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2990,11 +2735,6 @@
         </is>
       </c>
       <c r="L52" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -3002,31 +2742,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.976549290585092</v>
+        <v>1.905712620484986</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0005673299896657643</v>
+        <v>0.008960506117870736</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03777335809585992</v>
+        <v>0.264162475234654</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001788674560316454</v>
+        <v>0.01997519257365006</v>
       </c>
       <c r="E53" t="n">
-        <v>0.315965350230399</v>
+        <v>0.07153736488046825</v>
       </c>
       <c r="F53" t="n">
-        <v>0.008942263342757486</v>
+        <v>0.003668457779329142</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6812659942571876</v>
+        <v>0.8043927345733791</v>
       </c>
       <c r="H53" t="n">
-        <v>0.958683401745005</v>
+        <v>0.8093932037010478</v>
       </c>
       <c r="I53" t="n">
-        <v>0.04313340058174354</v>
+        <v>0.1091689518175945</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3039,11 +2779,6 @@
         </is>
       </c>
       <c r="L53" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -3051,31 +2786,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.894333335924585</v>
+        <v>1.83450935824136</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01820111659092348</v>
+        <v>0.01750442190994618</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2574776448195178</v>
+        <v>0.2995062563232091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03111888738260365</v>
+        <v>0.02270749482922907</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09950101358700325</v>
+        <v>0.1197926058543758</v>
       </c>
       <c r="F54" t="n">
-        <v>0.002140942222589926</v>
+        <v>0.004003085159607309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.860217651113292</v>
+        <v>0.8861227802664158</v>
       </c>
       <c r="H54" t="n">
-        <v>0.70105670371677</v>
+        <v>0.7630868311613807</v>
       </c>
       <c r="I54" t="n">
-        <v>0.158229555979581</v>
+        <v>0.07753832678965772</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3088,11 +2823,6 @@
         </is>
       </c>
       <c r="L54" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -3100,766 +2830,691 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.12597912590467</v>
+        <v>1.853005186240419</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01800495172438562</v>
+        <v>0.01357908441624248</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0497203541352624</v>
+        <v>0.2761252391295248</v>
       </c>
       <c r="D55" t="n">
-        <v>1e-07</v>
+        <v>0.02340392352237671</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9447406090261653</v>
+        <v>0.1237799583904889</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03195262749508918</v>
+        <v>0.004586436881612722</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0199554826086345</v>
+        <v>0.8841916171357517</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1316904562669493</v>
+        <v>0.7689331565110732</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9335694035532502</v>
+        <v>0.07209309157979907</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.138669346626756</v>
+        <v>1.876064776290524</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03015576963088322</v>
+        <v>0.004675254064537883</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1062952504150413</v>
+        <v>0.2524729388877656</v>
       </c>
       <c r="D56" t="n">
-        <v>1e-07</v>
+        <v>0.03150337820826094</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9064774024050499</v>
+        <v>0.1112816792385232</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02510968189665722</v>
+        <v>0.003715533825268168</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008714361369732438</v>
+        <v>0.8920995500663905</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01968446359267567</v>
+        <v>0.7649450922345358</v>
       </c>
       <c r="I56" t="n">
-        <v>1.050823599533729</v>
+        <v>0.07867472166797987</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.119530152200656</v>
+        <v>1.840301397331868</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01409432005209499</v>
+        <v>0.02518698436337706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05593677078891385</v>
+        <v>0.2885114550479028</v>
       </c>
       <c r="D57" t="n">
-        <v>1e-07</v>
+        <v>0.02703903346814153</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9442496749887154</v>
+        <v>0.1451129777569583</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03173641036301412</v>
+        <v>0.004878618798491308</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0285494530811312</v>
+        <v>0.8683205655835634</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1998395088461039</v>
+        <v>0.7405701054804883</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8548374040887852</v>
+        <v>0.07189296415602466</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.127288750267269</v>
+        <v>1.882569457706701</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02038112054258511</v>
+        <v>0.003263295426452407</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05194463239542087</v>
+        <v>0.2428348010199594</v>
       </c>
       <c r="D58" t="n">
-        <v>1e-07</v>
+        <v>0.02886495295996834</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9368604910645102</v>
+        <v>0.07255249964746437</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03219324737391631</v>
+        <v>0.003674007770748995</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01748073135656815</v>
+        <v>0.8503358533699191</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1044099821977691</v>
+        <v>0.8447000814631792</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9580328527203806</v>
+        <v>0.09671863840413852</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.138862380785246</v>
+        <v>1.876579390047743</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03937990366044177</v>
+        <v>0.01436427026156804</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05547583561709476</v>
+        <v>0.305703998294873</v>
       </c>
       <c r="D59" t="n">
-        <v>1e-07</v>
+        <v>0.02250137841672762</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9114676414873104</v>
+        <v>0.08225008150052468</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03883712391812819</v>
+        <v>0.001830807263378477</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01209827022320743</v>
+        <v>0.8071886090212109</v>
       </c>
       <c r="H59" t="n">
-        <v>0.03434660017744888</v>
+        <v>0.7681260586221779</v>
       </c>
       <c r="I59" t="n">
-        <v>1.047960962707835</v>
+        <v>0.1299201710347596</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.11978671677811</v>
+        <v>1.872004352440857</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02234298317187472</v>
+        <v>0.008743947301463459</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05201796570716603</v>
+        <v>0.3124937514092103</v>
       </c>
       <c r="D60" t="n">
-        <v>1e-07</v>
+        <v>0.02670636841503261</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9439240744679839</v>
+        <v>0.08414015622872649</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03354003977278947</v>
+        <v>0.002768749982855567</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01598786070536359</v>
+        <v>0.7943209422889423</v>
       </c>
       <c r="H60" t="n">
-        <v>0.127725681613697</v>
+        <v>0.7798785842834871</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9365295786458857</v>
+        <v>0.1330991551127138</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.133517375339167</v>
+        <v>1.864451123392098</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03668529616699677</v>
+        <v>0.008727293268640484</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06434849408923846</v>
+        <v>0.2811359665405835</v>
       </c>
       <c r="D61" t="n">
-        <v>1e-07</v>
+        <v>0.02092313638392333</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9455956483832209</v>
+        <v>0.08367672336259478</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02682893531224913</v>
+        <v>0.001535264735125825</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01304769536690408</v>
+        <v>0.8387444404934659</v>
       </c>
       <c r="H61" t="n">
-        <v>0.03438496742422455</v>
+        <v>0.8323835465056084</v>
       </c>
       <c r="I61" t="n">
-        <v>1.027088010652261</v>
+        <v>0.08434644427367879</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.126827885985433</v>
+        <v>1.84286625119022</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02751659643373991</v>
+        <v>0.01181435834514854</v>
       </c>
       <c r="C62" t="n">
-        <v>0.05486444486781929</v>
+        <v>0.2905403002774803</v>
       </c>
       <c r="D62" t="n">
-        <v>1e-07</v>
+        <v>0.01385980931707385</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9489418480800758</v>
+        <v>0.076383732501732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03133182752142374</v>
+        <v>0.003093323650875568</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01177264339582585</v>
+        <v>0.8128489282316521</v>
       </c>
       <c r="H62" t="n">
-        <v>0.06101046480382236</v>
+        <v>0.8690844244610404</v>
       </c>
       <c r="I62" t="n">
-        <v>1.008150322150291</v>
+        <v>0.1387885685500859</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.123992997145913</v>
+        <v>1.87777740500268</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05022307339292938</v>
+        <v>0.01498487591340445</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06902598983860304</v>
+        <v>0.2765835787490273</v>
       </c>
       <c r="D63" t="n">
-        <v>1e-07</v>
+        <v>0.0297781789092873</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9150353233956219</v>
+        <v>0.0704145809082703</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03364891723097696</v>
+        <v>0.001840455792129067</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01221107849219035</v>
+        <v>0.8163015074587491</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03861624825180832</v>
+        <v>0.7981719794999614</v>
       </c>
       <c r="I63" t="n">
-        <v>1.030733319132764</v>
+        <v>0.1320092160798189</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.118455582699749</v>
+        <v>1.921641039163183</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05872777957700519</v>
+        <v>0.009884882324909743</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05841494165385831</v>
+        <v>0.1767957208002098</v>
       </c>
       <c r="D64" t="n">
-        <v>1e-07</v>
+        <v>0.01875671128507457</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8976167463522129</v>
+        <v>0.06824796424514272</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04093090213981136</v>
+        <v>3.09138205136215e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0190876215882892</v>
+        <v>0.866748551369394</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07080655807890031</v>
+        <v>0.8732316137338046</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9834133168101726</v>
+        <v>0.07076604823643506</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.127986886252917</v>
+        <v>1.888088885042494</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02476734819474776</v>
+        <v>0.01252913439578948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04850097253733191</v>
+        <v>0.2513271782340979</v>
       </c>
       <c r="D65" t="n">
-        <v>1e-07</v>
+        <v>0.02891072242084236</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9525501166496176</v>
+        <v>0.06560952521116058</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03206719910779367</v>
+        <v>0.001226611143040857</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01472343387931865</v>
+        <v>0.8376513617930985</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1022937811288627</v>
+        <v>0.8146184744778051</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9463028609799629</v>
+        <v>0.1158252167569561</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.133517375339167</v>
+        <v>1.862157002477761</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03668529616699677</v>
+        <v>0.01751826534433892</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06434849408923846</v>
+        <v>0.2838768908526852</v>
       </c>
       <c r="D66" t="n">
-        <v>1e-07</v>
+        <v>0.02675274862417746</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9455956483832209</v>
+        <v>0.0813312700655841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02682893531224913</v>
+        <v>0.002773558394140807</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01304769536690408</v>
+        <v>0.8000396153473064</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03438496742422455</v>
+        <v>0.8221658433881509</v>
       </c>
       <c r="I66" t="n">
-        <v>1.027088010652261</v>
+        <v>0.1276866939410682</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.090199046333176</v>
+        <v>1.901637838196204</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04792412377048146</v>
+        <v>0.006263878984497262</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01755079871263023</v>
+        <v>0.2457530579220883</v>
       </c>
       <c r="D67" t="n">
-        <v>1e-07</v>
+        <v>0.0332007462961349</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7953098209116987</v>
+        <v>0.07114279047889653</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0294304176043237</v>
+        <v>0.002452952779762931</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1782131098915492</v>
+        <v>0.8278453776069312</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3310745415524824</v>
+        <v>0.7990141442934908</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6993682085202796</v>
+        <v>0.1242352191411072</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aegirine-Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Aegirine-Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Aegirine-Augite</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Aegirine-Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.137795648929345</v>
+        <v>1.883596480761966</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0165383720424388</v>
+        <v>0.01621639731145409</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05719573877210236</v>
+        <v>0.3217937779474278</v>
       </c>
       <c r="D68" t="n">
-        <v>1e-07</v>
+        <v>0.01448597182147904</v>
       </c>
       <c r="E68" t="n">
-        <v>0.970085199460066</v>
+        <v>0.09430691837620325</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02037645171301979</v>
+        <v>3.042893861875752e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01793177296504671</v>
+        <v>0.7953127143499952</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08754973548310653</v>
+        <v>0.7432880043334141</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9771227098858584</v>
+        <v>0.1260775155307882</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.119282509805786</v>
+        <v>1.868756063002757</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06175524336873683</v>
+        <v>0.02354079710122187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0441988576823654</v>
+        <v>0.2624430397853309</v>
       </c>
       <c r="D69" t="n">
-        <v>1e-07</v>
+        <v>0.03394525334188229</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9108895688793861</v>
+        <v>0.08276342375921493</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04129306800095284</v>
+        <v>0.002773632391860606</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0291953586810388</v>
+        <v>0.8098244159533484</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07589763739284773</v>
+        <v>0.8140009869944624</v>
       </c>
       <c r="I69" t="n">
-        <v>0.989691046639965</v>
+        <v>0.1156971077118293</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.834960792882113</v>
+        <v>1.844765406060187</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04450298497788458</v>
+        <v>0.0194581215011289</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2581845560158462</v>
+        <v>0.3074089509219639</v>
       </c>
       <c r="D70" t="n">
-        <v>3.017392298770986e-06</v>
+        <v>0.02390534350495079</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3357679005059535</v>
+        <v>0.08432599224074017</v>
       </c>
       <c r="F70" t="n">
-        <v>0.008727802013507334</v>
+        <v>0.002159853429915817</v>
       </c>
       <c r="G70" t="n">
-        <v>0.609333787220691</v>
+        <v>0.7955885656169526</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8333613360589253</v>
+        <v>0.8083405868759287</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1331943767165604</v>
+        <v>0.1659840532921913</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3872,11 +3527,6 @@
         </is>
       </c>
       <c r="L70" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -3884,31 +3534,31 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.863386076680662</v>
+        <v>1.842238708979099</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02971303195916667</v>
+        <v>0.0180097108180081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2397699053634933</v>
+        <v>0.3176234377570071</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002945882624597641</v>
+        <v>0.02150791944991558</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1950659332358734</v>
+        <v>0.06812735550244749</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004418275765270306</v>
+        <v>0.005222703890085074</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7598634376074337</v>
+        <v>0.8186476601627056</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8535334188202629</v>
+        <v>0.806015289580714</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07368807611123003</v>
+        <v>0.1455757682236004</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3921,11 +3571,6 @@
         </is>
       </c>
       <c r="L71" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -3933,31 +3578,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.843508096978929</v>
+        <v>1.855651311121034</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03356041329143564</v>
+        <v>0.01634045459800886</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2764625681475625</v>
+        <v>0.3093227162195044</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003820883013218784</v>
+        <v>0.02375556207730123</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1946195120803219</v>
+        <v>0.07504711977640176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.004723033127141878</v>
+        <v>3.066172346518689e-06</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7376196126955544</v>
+        <v>0.8111108495949019</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8491902106082887</v>
+        <v>0.7951306041286841</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07856488762490797</v>
+        <v>0.1502043806490446</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3970,11 +3615,6 @@
         </is>
       </c>
       <c r="L72" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -3982,178 +3622,163 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.783413141981741</v>
+        <v>1.874482172433688</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06091894689991129</v>
+        <v>0.01389211720575989</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3415612727747389</v>
+        <v>0.2556148080445908</v>
       </c>
       <c r="D73" t="n">
-        <v>3.063235843063193e-06</v>
+        <v>0.02948558993645319</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4199301860326025</v>
+        <v>0.09983066623021442</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01345468814201657</v>
+        <v>3.066775187809602e-06</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4493596202423282</v>
+        <v>0.889536587703768</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8339840830247919</v>
+        <v>0.7626995679590193</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1645152482513539</v>
+        <v>0.0870514258699471</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.849010664794057</v>
+        <v>1.875966254663318</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04465933260875393</v>
+        <v>0.01940780226909024</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2556368222564745</v>
+        <v>0.1725774233948552</v>
       </c>
       <c r="D74" t="n">
-        <v>3.008582772604607e-06</v>
+        <v>0.03045076512512896</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3335146417255588</v>
+        <v>0.1143107548711872</v>
       </c>
       <c r="F74" t="n">
-        <v>0.008380012308569888</v>
+        <v>3.077525700191604e-06</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5877000552777839</v>
+        <v>0.9484457658816869</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8354131612916593</v>
+        <v>0.8163721203463973</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1283786545693078</v>
+        <v>0.04790522277756407</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.800035388854636</v>
+        <v>1.863399895431117</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05662774642383337</v>
+        <v>0.01289371712050736</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3165769581613984</v>
+        <v>0.2475504315020612</v>
       </c>
       <c r="D75" t="n">
-        <v>3.020907215760272e-06</v>
+        <v>0.02738912885878931</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3329636036568593</v>
+        <v>0.08291616115628492</v>
       </c>
       <c r="F75" t="n">
-        <v>0.007119826515045841</v>
+        <v>3.088616293418644e-06</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5718802668264349</v>
+        <v>0.9078311844740421</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8376072082189852</v>
+        <v>0.7841504150195628</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1244595640723487</v>
+        <v>0.1201946515031722</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.821709463552394</v>
+        <v>1.924891407213257</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03809969870694205</v>
+        <v>1e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>0.331740689651375</v>
+        <v>0.1976451585894942</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005222630420158998</v>
+        <v>0.02161737826488828</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1780067373828236</v>
+        <v>0.07926961781327574</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003419155230159236</v>
+        <v>1e-07</v>
       </c>
       <c r="G76" t="n">
-        <v>0.767553173676002</v>
+        <v>0.8641176874276079</v>
       </c>
       <c r="H76" t="n">
-        <v>0.7883672161758435</v>
+        <v>0.8319912372710717</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0740000026826016</v>
+        <v>0.09188967555991709</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4166,11 +3791,6 @@
         </is>
       </c>
       <c r="L76" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -4178,80 +3798,75 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.801106133701193</v>
+        <v>1.866736508828355</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04500872157548452</v>
+        <v>0.01627842428581559</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3791060736049079</v>
+        <v>0.3241772545960221</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0008759458344393027</v>
+        <v>0.02029704087440457</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2137242241290664</v>
+        <v>0.09968038461055102</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004066386861106187</v>
+        <v>0.00279567407993198</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7377255198698125</v>
+        <v>0.7911106466002028</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7371676054211138</v>
+        <v>0.7682080224352303</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09022110654089417</v>
+        <v>0.1109279256802041</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.855915737539642</v>
+        <v>1.890728750583841</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0443424421329599</v>
+        <v>0.003844347319931064</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2582759261138814</v>
+        <v>0.2193944727645568</v>
       </c>
       <c r="D78" t="n">
-        <v>2.987234687656075e-06</v>
+        <v>0.02164363389359199</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3355718468797486</v>
+        <v>0.07936589561474121</v>
       </c>
       <c r="F78" t="n">
-        <v>0.008000528866144595</v>
+        <v>0.00278240771827381</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5824033899640143</v>
+        <v>0.8923737273122885</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8238177544602012</v>
+        <v>0.8369125478378835</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1245374222698212</v>
+        <v>0.07572413144409215</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4264,11 +3879,6 @@
         </is>
       </c>
       <c r="L78" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -4276,31 +3886,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.785919496116489</v>
+        <v>1.876667757387057</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04296508447597048</v>
+        <v>0.01470940334238945</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3804074400792833</v>
+        <v>0.3034113494550252</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0005826239074896349</v>
+        <v>0.01918008085915953</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1790301172291071</v>
+        <v>0.09326485197493217</v>
       </c>
       <c r="F79" t="n">
-        <v>0.003744974769532491</v>
+        <v>0.002146757630422073</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7497646649710853</v>
+        <v>0.8296282086391927</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7990357381488614</v>
+        <v>0.758825421252956</v>
       </c>
       <c r="I79" t="n">
-        <v>0.07715492770017707</v>
+        <v>0.09898658714465197</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4313,11 +3923,6 @@
         </is>
       </c>
       <c r="L79" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -4325,80 +3930,75 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.783669477203896</v>
+        <v>1.925425153510544</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04647401061952101</v>
+        <v>0.01172993725034839</v>
       </c>
       <c r="C80" t="n">
-        <v>0.400875195679179</v>
+        <v>0.1897453439189482</v>
       </c>
       <c r="D80" t="n">
-        <v>2.942228506333762e-06</v>
+        <v>0.03526197870053512</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2091401088454408</v>
+        <v>0.05943596200871221</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004412795267835029</v>
+        <v>0.001535609944262817</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7361754552054858</v>
+        <v>0.8459601801027602</v>
       </c>
       <c r="H80" t="n">
-        <v>0.7412303252197802</v>
+        <v>0.838009809950895</v>
       </c>
       <c r="I80" t="n">
-        <v>0.09307814435991078</v>
+        <v>0.08647454508471905</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.863729827762926</v>
+        <v>1.841259993623317</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02977209236800259</v>
+        <v>0.009389265494706856</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256966946512312</v>
+        <v>0.2872643325026741</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00885521441150915</v>
+        <v>0.02670022148026897</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2001370590968728</v>
+        <v>0.08012336891687429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004743276369140449</v>
+        <v>0.003730934518042586</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7352155025949169</v>
+        <v>0.8591335930119167</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8324291825585618</v>
+        <v>0.8278974156263478</v>
       </c>
       <c r="I81" t="n">
-        <v>0.08107322636751096</v>
+        <v>0.1096047471739075</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4411,11 +4011,6 @@
         </is>
       </c>
       <c r="L81" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -4423,521 +4018,471 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.78499120263458</v>
+        <v>1.857524706002928</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04688644267176349</v>
+        <v>0.01729966967464208</v>
       </c>
       <c r="C82" t="n">
-        <v>0.394533767606412</v>
+        <v>0.3110258479942075</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001180225891380617</v>
+        <v>0.02654968804822793</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2109810746746647</v>
+        <v>0.08333470455129059</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005689668921174555</v>
+        <v>1e-07</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7310288614301121</v>
+        <v>0.7721256900902921</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7461294396709451</v>
+        <v>0.8326157979562401</v>
       </c>
       <c r="I82" t="n">
-        <v>0.09768334485245157</v>
+        <v>0.1118176316474369</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.77043067586695</v>
+        <v>1.877398108459719</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04874882025985066</v>
+        <v>0.009015190038822318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4068698607338679</v>
+        <v>0.2687704473835989</v>
       </c>
       <c r="D83" t="n">
-        <v>2.944348384901246e-06</v>
+        <v>0.02469071869066554</v>
       </c>
       <c r="E83" t="n">
-        <v>0.209602239136716</v>
+        <v>0.07865506640004986</v>
       </c>
       <c r="F83" t="n">
-        <v>0.004415974691217966</v>
+        <v>0.003690845538745875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7383713696838586</v>
+        <v>0.825000589711097</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7545327849012791</v>
+        <v>0.8322301684165412</v>
       </c>
       <c r="I83" t="n">
-        <v>0.08881287203438198</v>
+        <v>0.09364153591280676</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.836004486291281</v>
+        <v>1.875932562385689</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04623274193476982</v>
+        <v>0.005233073265200619</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2802675041000836</v>
+        <v>0.2528492993278464</v>
       </c>
       <c r="D84" t="n">
-        <v>3.017853191827826e-06</v>
+        <v>0.03733939341590643</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3434804617779119</v>
+        <v>0.08481037333967276</v>
       </c>
       <c r="F84" t="n">
-        <v>0.008405833844179134</v>
+        <v>0.002480715038178413</v>
       </c>
       <c r="G84" t="n">
-        <v>0.565042831172229</v>
+        <v>0.8726900486879592</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8289899163135529</v>
+        <v>0.7551020898202013</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1383952940615043</v>
+        <v>0.1710709227691166</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.984953090925592</v>
+        <v>1.841372821840224</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004109983874005815</v>
+        <v>0.01578508966879723</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1407938312040089</v>
+        <v>0.3103926032803927</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006047035074070678</v>
+        <v>0.02402551356540394</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1666366824306658</v>
+        <v>0.08803959590654292</v>
       </c>
       <c r="F85" t="n">
-        <v>1e-07</v>
+        <v>0.002144869027735984</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8095335423900593</v>
+        <v>0.8380663824174439</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7515828573803112</v>
+        <v>0.791104379396839</v>
       </c>
       <c r="I85" t="n">
-        <v>0.139820222975835</v>
+        <v>0.1276575158440452</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.982889498384891</v>
+        <v>1.890013872210134</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003009750283036899</v>
+        <v>0.002200612420749655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1028750228926923</v>
+        <v>0.2335682376074666</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01006422082269826</v>
+        <v>0.04191755175137644</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1428314089815445</v>
+        <v>0.07675263358244246</v>
       </c>
       <c r="F86" t="n">
-        <v>1e-07</v>
+        <v>0.002477577441718302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8599026901878015</v>
+        <v>0.8257993782859775</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8031330440078709</v>
+        <v>0.8419023322904996</v>
       </c>
       <c r="I86" t="n">
-        <v>0.09378758672991794</v>
+        <v>0.1084678283089904</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.903343784672955</v>
+        <v>1.887989145948538</v>
       </c>
       <c r="B87" t="n">
-        <v>0.008265723804424956</v>
+        <v>0.01146983163860475</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1346713312029375</v>
+        <v>0.2596912806767899</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004922467870651511</v>
+        <v>0.04132801808328618</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2223825214303961</v>
+        <v>0.08621683670574468</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00465301627951844</v>
+        <v>0.006149239760143766</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9194117881454547</v>
+        <v>0.8095574841386912</v>
       </c>
       <c r="H87" t="n">
-        <v>0.813842022945942</v>
+        <v>0.786042069626414</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01420187126709154</v>
+        <v>0.123169092810931</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.934283484930094</v>
+        <v>1.870292009209137</v>
       </c>
       <c r="B88" t="n">
-        <v>0.006920178051618592</v>
+        <v>0.006545611805751588</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09366814844396988</v>
+        <v>0.2956691566475368</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001454526367283208</v>
+        <v>0.02350321049716358</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2646834188491453</v>
+        <v>0.0782212409361014</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007791138899199555</v>
+        <v>0.003684715218196079</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9395999150639982</v>
+        <v>0.8252516220938753</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7553434873458038</v>
+        <v>0.8153107461856536</v>
       </c>
       <c r="I88" t="n">
-        <v>0.01498140332309456</v>
+        <v>0.08786278358409008</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.922241402428021</v>
+        <v>1.840313289152167</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01059834069538911</v>
+        <v>0.01730257448599483</v>
       </c>
       <c r="C89" t="n">
-        <v>0.09743613917003115</v>
+        <v>0.31279911328582</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0005862172710125149</v>
+        <v>0.02395645784305194</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2581623325823135</v>
+        <v>0.08212747106078817</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01099021028566629</v>
+        <v>0.002473681854207728</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8665800443414322</v>
+        <v>0.8119837670589918</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8432881509118023</v>
+        <v>0.8245414807108883</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01653248194080212</v>
+        <v>0.1146677085454815</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.924390899448448</v>
+        <v>1.889687541631793</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01173157953440017</v>
+        <v>0.01416280743935075</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1072097313070954</v>
+        <v>0.2963928091072395</v>
       </c>
       <c r="D90" t="n">
-        <v>0.000880648881089016</v>
+        <v>0.03622742993504706</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2602588523190517</v>
+        <v>0.07485830916362404</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0132080944995541</v>
+        <v>0.003309404432362713</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8374414881814857</v>
+        <v>0.7466222692268404</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8453525314126311</v>
+        <v>0.7935079174018859</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0187170106786055</v>
+        <v>0.1501363715385209</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.769281497912776</v>
+        <v>1.895142625460968</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04722965788698157</v>
+        <v>0.010471145284503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4121703828938348</v>
+        <v>0.2957073263352917</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00116788533137461</v>
+        <v>0.041701090769084</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2362616895237881</v>
+        <v>0.09189625967522093</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004379026690627141</v>
+        <v>0.003722849785080605</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7079705506542783</v>
+        <v>0.7742748726339087</v>
       </c>
       <c r="H91" t="n">
-        <v>0.759694235983932</v>
+        <v>0.7531080463722208</v>
       </c>
       <c r="I91" t="n">
-        <v>0.07732956642009106</v>
+        <v>0.119309715954618</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.783072675163361</v>
+        <v>1.89254366114687</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04381929235754393</v>
+        <v>0.01401785092562584</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3998731223842487</v>
+        <v>0.3350053805665574</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001726914999178516</v>
+        <v>0.03581849056870946</v>
       </c>
       <c r="E92" t="n">
-        <v>0.220419460542453</v>
+        <v>0.1176353861218414</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004008412499273846</v>
+        <v>0.005570157102989184</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7337200966639248</v>
+        <v>0.7467187587978775</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7496706092858861</v>
+        <v>0.6948344499390422</v>
       </c>
       <c r="I92" t="n">
-        <v>0.07199485978302335</v>
+        <v>0.131758956460806</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4950,11 +4495,6 @@
         </is>
       </c>
       <c r="L92" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -4962,31 +4502,31 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.779760688310502</v>
+        <v>1.896383710766772</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04726916060977772</v>
+        <v>0.01409903543803448</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4137459497659458</v>
+        <v>0.2971419620685112</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0005776353631619757</v>
+        <v>0.03270948665606235</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2269887059470442</v>
+        <v>0.0881243219446825</v>
       </c>
       <c r="F93" t="n">
-        <v>0.004331727790020573</v>
+        <v>0.003893503443092903</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7003235936764987</v>
+        <v>0.8117879476817133</v>
       </c>
       <c r="H93" t="n">
-        <v>0.757751004269607</v>
+        <v>0.7046901498919577</v>
       </c>
       <c r="I93" t="n">
-        <v>0.07011978556521714</v>
+        <v>0.1515171342151308</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4999,11 +4539,6 @@
         </is>
       </c>
       <c r="L93" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -5011,80 +4546,75 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.971928783520928</v>
+        <v>1.867505279916735</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002747723398819131</v>
+        <v>0.009840027981061766</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1713235277713249</v>
+        <v>0.2826172671296788</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04331502857049325</v>
+        <v>0.02412945166186362</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06689337662856341</v>
+        <v>0.1428096919531377</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0006187093597042162</v>
+        <v>1e-07</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7377694251917052</v>
+        <v>0.8124440033945121</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8527111985814814</v>
+        <v>0.7668877190558274</v>
       </c>
       <c r="I94" t="n">
-        <v>0.149420920893401</v>
+        <v>0.09862290926835734</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.995388702019041</v>
+        <v>1.870356973110327</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005488646889771372</v>
+        <v>0.01168041604633899</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07781705575489943</v>
+        <v>0.289374124039274</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008940695905229529</v>
+        <v>0.0225523229498488</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1271474753308226</v>
+        <v>0.1207857887879636</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003398690825921238</v>
+        <v>1e-07</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8864030588503532</v>
+        <v>0.8235493586749549</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8051452598518793</v>
+        <v>0.765996475166791</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1110429240923241</v>
+        <v>0.09101000752365546</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5097,11 +4627,6 @@
         </is>
       </c>
       <c r="L95" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -5109,31 +4634,31 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.990002667330441</v>
+        <v>1.856571430204677</v>
       </c>
       <c r="B96" t="n">
-        <v>0.008945150841511127</v>
+        <v>0.01410272024461511</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0785608875534925</v>
+        <v>0.3101582458127646</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01965609096713049</v>
+        <v>0.02451163791228615</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1108887630608243</v>
+        <v>0.1085345574709485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003051809403039599</v>
+        <v>1e-07</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9953079975044595</v>
+        <v>0.827615496552034</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6883301550734844</v>
+        <v>0.7570548444305712</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1075846696613475</v>
+        <v>0.1048447642800666</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5146,11 +4671,6 @@
         </is>
       </c>
       <c r="L96" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -5158,325 +4678,295 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.980566449064027</v>
+        <v>1.868313165562755</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001082844505400046</v>
+        <v>0.0132700790396869</v>
       </c>
       <c r="C97" t="n">
-        <v>0.03774479203265992</v>
+        <v>0.2927436238889021</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02304440285259376</v>
+        <v>0.02333810642993007</v>
       </c>
       <c r="E97" t="n">
-        <v>0.08877570167659626</v>
+        <v>0.09934759570524006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003352605624221215</v>
+        <v>1e-07</v>
       </c>
       <c r="G97" t="n">
-        <v>1.079300623788176</v>
+        <v>0.826430803575011</v>
       </c>
       <c r="H97" t="n">
-        <v>0.747576496984945</v>
+        <v>0.7791131298907441</v>
       </c>
       <c r="I97" t="n">
-        <v>0.05302438491865429</v>
+        <v>0.09073539270532369</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.976251410287639</v>
+        <v>1.865889058810568</v>
       </c>
       <c r="B98" t="n">
-        <v>0.008721526998207257</v>
+        <v>0.01349732148005955</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07899056203761264</v>
+        <v>0.3002595717115776</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02033645424732192</v>
+        <v>0.0235466980216756</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1348244179236266</v>
+        <v>0.09902788859240448</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003989050935272536</v>
+        <v>1e-07</v>
       </c>
       <c r="G98" t="n">
-        <v>1.01965414025897</v>
+        <v>0.8237712947636123</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6656997591569267</v>
+        <v>0.7727613088467502</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1137924654522194</v>
+        <v>0.09740058486257402</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.89599534082257</v>
+        <v>1.889836232500933</v>
       </c>
       <c r="B99" t="n">
-        <v>0.00544832162403556</v>
+        <v>0.01091335298988253</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2389910803774222</v>
+        <v>0.2090104473202844</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03950810157149319</v>
+        <v>0.04071560474384642</v>
       </c>
       <c r="E99" t="n">
-        <v>0.101750841674468</v>
+        <v>0.1167682933044975</v>
       </c>
       <c r="F99" t="n">
-        <v>1e-07</v>
+        <v>0.003993238428105427</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8707138535757079</v>
+        <v>0.847179725060434</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7581044131355406</v>
+        <v>0.7977354373051322</v>
       </c>
       <c r="I99" t="n">
-        <v>0.09758958759539892</v>
+        <v>0.1118024387348355</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.893675952919571</v>
+        <v>1.882537029768989</v>
       </c>
       <c r="B100" t="n">
-        <v>0.008233244323109635</v>
+        <v>0.01554216628821094</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2287295656648001</v>
+        <v>0.2195638001902364</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03028401006030736</v>
+        <v>0.03696585366194616</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1015921084892709</v>
+        <v>0.09487395927538265</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002780839581030284</v>
+        <v>0.003069872749969066</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8962213836193005</v>
+        <v>0.8580163022630863</v>
       </c>
       <c r="H100" t="n">
-        <v>0.755923666810042</v>
+        <v>0.8054102862326592</v>
       </c>
       <c r="I100" t="n">
-        <v>0.09760785666230033</v>
+        <v>0.1124378725086045</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.8767918122843</v>
+        <v>1.874365569553975</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01332259944967648</v>
+        <v>0.01717969395942489</v>
       </c>
       <c r="C101" t="n">
-        <v>0.253011499259609</v>
+        <v>0.2276999875770254</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03628866118027293</v>
+        <v>0.03696910340127193</v>
       </c>
       <c r="E101" t="n">
-        <v>0.09822957014595508</v>
+        <v>0.08730384137500895</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001530546657882997</v>
+        <v>0.002149099839872734</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8868109919254917</v>
+        <v>0.8651164125539628</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7419251954483711</v>
+        <v>0.8074229455265521</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1100141340073165</v>
+        <v>0.1117449586562171</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.880088462746124</v>
+        <v>1.87017916294645</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01852098106505992</v>
+        <v>0.01885770682730025</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2534559228075068</v>
+        <v>0.2363413930324675</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03577992468787917</v>
+        <v>0.03676411302793153</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1056687314576993</v>
+        <v>0.0878018412710863</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001839882139944819</v>
+        <v>0.002461577163099954</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8678595868603408</v>
+        <v>0.8610834835187762</v>
       </c>
       <c r="H102" t="n">
-        <v>0.7350823813375605</v>
+        <v>0.8029911173217819</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1116112933208622</v>
+        <v>0.1141065946780623</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.883429763285143</v>
+        <v>1.884298625666821</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01384875218076663</v>
+        <v>0.01661322495611998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258645526486518</v>
+        <v>0.3123173537097512</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02596905786278918</v>
+        <v>0.02776324202898864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1068586594190987</v>
+        <v>0.08144086590879063</v>
       </c>
       <c r="F103" t="n">
-        <v>0.002445761661296095</v>
+        <v>0.002759626447592425</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8808409424671562</v>
+        <v>0.7971002621165253</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7262861791570164</v>
+        <v>0.7179633144309729</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1182723193663941</v>
+        <v>0.1775826666600497</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5489,11 +4979,6 @@
         </is>
       </c>
       <c r="L103" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
         <is>
           <t>Augite</t>
         </is>
@@ -5501,129 +4986,119 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.894021681047916</v>
+        <v>1.931919133967981</v>
       </c>
       <c r="B104" t="n">
-        <v>0.007363046255112568</v>
+        <v>0.007751447055319065</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2307004537763474</v>
+        <v>0.1648045791850237</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03553773821175952</v>
+        <v>0.0433496261204455</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09458327560503743</v>
+        <v>0.07693312647396418</v>
       </c>
       <c r="F104" t="n">
-        <v>0.002763248559353441</v>
+        <v>1e-07</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8889309200775124</v>
+        <v>0.8886855406928347</v>
       </c>
       <c r="H104" t="n">
-        <v>0.7600747660426266</v>
+        <v>0.7964304339999179</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0976932384043</v>
+        <v>0.09275216322126112</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.973411148216043</v>
+        <v>1.877228975084275</v>
       </c>
       <c r="B105" t="n">
-        <v>0.009295907167057567</v>
+        <v>0.0160236345036319</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117361147759966</v>
+        <v>0.2808108463529925</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02499806814697641</v>
+        <v>0.03624825243114389</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08272783455655926</v>
+        <v>0.1079276781024839</v>
       </c>
       <c r="F105" t="n">
         <v>1e-07</v>
       </c>
       <c r="G105" t="n">
-        <v>0.861426704966018</v>
+        <v>0.8825944912720108</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8138247085283152</v>
+        <v>0.707834672974656</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1261309983452802</v>
+        <v>0.0790939751944499</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.791204470099082</v>
+        <v>1.96698146812984</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03403426906047299</v>
+        <v>0.0008086196518759641</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3264128271202191</v>
+        <v>0.08614183696978243</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06048518112067615</v>
+        <v>0.02549411148059684</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06487020032561192</v>
+        <v>0.05114590251364728</v>
       </c>
       <c r="F106" t="n">
         <v>1e-07</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7840715571566633</v>
+        <v>0.9240117333262026</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8945588114293358</v>
+        <v>0.8790837328334203</v>
       </c>
       <c r="I106" t="n">
-        <v>0.05134518868671754</v>
+        <v>0.08544449548639103</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5636,11 +5111,6 @@
         </is>
       </c>
       <c r="L106" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -5648,31 +5118,31 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.968695837165403</v>
+        <v>1.842754831797991</v>
       </c>
       <c r="B107" t="n">
-        <v>2.707611873473619e-06</v>
+        <v>0.01181364405097471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1815478471418657</v>
+        <v>0.2905227342584303</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04382091734315702</v>
+        <v>0.01385897135526869</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06654659257043351</v>
+        <v>0.07637911435375408</v>
       </c>
       <c r="F107" t="n">
-        <v>1e-07</v>
+        <v>0.00309313662903341</v>
       </c>
       <c r="G107" t="n">
-        <v>0.820892308655977</v>
+        <v>0.8127997835183561</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7558127354511516</v>
+        <v>0.8690318797588372</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1625916626815372</v>
+        <v>0.1394882395455971</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5685,11 +5155,6 @@
         </is>
       </c>
       <c r="L107" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -5697,227 +5162,207 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.958966617935541</v>
+        <v>1.876744698142186</v>
       </c>
       <c r="B108" t="n">
-        <v>0.009499272876777305</v>
+        <v>0.01497663479594388</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1594463240063904</v>
+        <v>0.2764314681961401</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0744452787606986</v>
+        <v>0.02976180203225665</v>
       </c>
       <c r="E108" t="n">
-        <v>0.05831631290605402</v>
+        <v>0.07116385347211919</v>
       </c>
       <c r="F108" t="n">
-        <v>1e-07</v>
+        <v>0.001839443610750218</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8443651834890521</v>
+        <v>0.8158525723694576</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7189637394730736</v>
+        <v>0.7977330149683359</v>
       </c>
       <c r="I108" t="n">
-        <v>0.181166554349138</v>
+        <v>0.1319366159821018</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.911067501150309</v>
+        <v>1.887273817820993</v>
       </c>
       <c r="B109" t="n">
-        <v>0.004348459714676419</v>
+        <v>0.0125237257061665</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2039444569863264</v>
+        <v>0.25121868305335</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0462705665280435</v>
+        <v>0.02889824197970327</v>
       </c>
       <c r="E109" t="n">
-        <v>0.06854584257547361</v>
+        <v>0.06566289983475494</v>
       </c>
       <c r="F109" t="n">
-        <v>1e-07</v>
+        <v>0.001348689791340003</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9155303283971112</v>
+        <v>0.8372897569060344</v>
       </c>
       <c r="H109" t="n">
-        <v>0.7547824681572132</v>
+        <v>0.8142668126350625</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1099691990832955</v>
+        <v>0.1157752162838058</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.98383714492573</v>
+        <v>1.867248841689263</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002979491955661338</v>
+        <v>0.02352181057225212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1026894487167516</v>
+        <v>0.2622313697065155</v>
       </c>
       <c r="D110" t="n">
-        <v>0.05066917911753532</v>
+        <v>0.03391787523173632</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06184264447836229</v>
+        <v>0.08434180026556526</v>
       </c>
       <c r="F110" t="n">
-        <v>1e-07</v>
+        <v>0.0027713953541115</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9285471920614342</v>
+        <v>0.8091712624229987</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7406661296475043</v>
+        <v>0.8133444649041304</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1305410434729392</v>
+        <v>0.1156037936886107</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.008486942616365</v>
+        <v>1.861354356263048</v>
       </c>
       <c r="B111" t="n">
-        <v>0.002717623781795878</v>
+        <v>0.01751071444001224</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03320816371283353</v>
+        <v>0.2837545312924632</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07711297041225945</v>
+        <v>0.02674121737714092</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0655231027255128</v>
+        <v>0.08129621381846364</v>
       </c>
       <c r="F111" t="n">
-        <v>1e-07</v>
+        <v>0.002772362906250484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9316306827270522</v>
+        <v>0.7996947739789229</v>
       </c>
       <c r="H111" t="n">
-        <v>0.75086660353847</v>
+        <v>0.821811464943592</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1281729456732736</v>
+        <v>0.127631657098619</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.986214333810435</v>
+        <v>1.898225905894891</v>
       </c>
       <c r="B112" t="n">
-        <v>0.004362753234343261</v>
+        <v>0.006276537250412152</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1106372455457016</v>
+        <v>0.2462496843039635</v>
       </c>
       <c r="D112" t="n">
-        <v>0.04670921891626563</v>
+        <v>0.03326783952642071</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07016584511467627</v>
+        <v>0.07128655832020349</v>
       </c>
       <c r="F112" t="n">
-        <v>1e-07</v>
+        <v>0.002457909792604296</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8537016077127931</v>
+        <v>0.830059071619707</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7883306800620951</v>
+        <v>0.8006288200452505</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1412513688530134</v>
+        <v>0.1244862780207208</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5930,11 +5375,6 @@
         </is>
       </c>
       <c r="L112" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -5942,423 +5382,383 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.975347448465427</v>
+        <v>1.84476272918047</v>
       </c>
       <c r="B113" t="n">
-        <v>0.004926191431997916</v>
+        <v>0.01945809326607495</v>
       </c>
       <c r="C113" t="n">
-        <v>0.112331354350198</v>
+        <v>0.3074085048507275</v>
       </c>
       <c r="D113" t="n">
-        <v>0.05004519223004687</v>
+        <v>0.02390530881667608</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08812971861907003</v>
+        <v>0.0843258698780064</v>
       </c>
       <c r="F113" t="n">
-        <v>1e-07</v>
+        <v>0.002159850295822008</v>
       </c>
       <c r="G113" t="n">
-        <v>0.878541213886617</v>
+        <v>0.7955874111639866</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7678506033088744</v>
+        <v>0.8083394139189151</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1227280881916291</v>
+        <v>0.1659838124380729</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.976388260811818</v>
+        <v>1.886032279360465</v>
       </c>
       <c r="B114" t="n">
-        <v>0.005456333060863899</v>
+        <v>0.01091442553932982</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1145424834441098</v>
+        <v>0.2393810912186282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.05877587074111187</v>
+        <v>0.04014609063741473</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07365880838918773</v>
+        <v>0.07279777816089658</v>
       </c>
       <c r="F114" t="n">
-        <v>1e-07</v>
+        <v>0.003072023752409094</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8595602960628889</v>
+        <v>0.8110366797016818</v>
       </c>
       <c r="H114" t="n">
-        <v>0.76155043798309</v>
+        <v>0.8471671534777603</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1631228508288037</v>
+        <v>0.1054843646471968</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.987950981114346</v>
+        <v>1.837107998904714</v>
       </c>
       <c r="B115" t="n">
-        <v>0.007147846754163332</v>
+        <v>0.01096880349659415</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1059492572287568</v>
+        <v>0.2577575764539153</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03524812741235476</v>
+        <v>0.03746424210410422</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1642560205513188</v>
+        <v>0.07620882495889461</v>
       </c>
       <c r="F115" t="n">
-        <v>1e-07</v>
+        <v>0.00308732921907993</v>
       </c>
       <c r="G115" t="n">
-        <v>0.8716260741766488</v>
+        <v>0.9074528771317184</v>
       </c>
       <c r="H115" t="n">
-        <v>0.696937144268549</v>
+        <v>0.8318606721000577</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1303693947356536</v>
+        <v>0.08480792790120448</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.967431642353392</v>
+        <v>1.864433736690219</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01151198713902811</v>
+        <v>0.01913915417966915</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09532677576494689</v>
+        <v>0.2441521095114669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.04147991249104216</v>
+        <v>0.02298735601819721</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1065777237222678</v>
+        <v>0.0699066561217228</v>
       </c>
       <c r="F116" t="n">
-        <v>1e-07</v>
+        <v>0.003078281832691134</v>
       </c>
       <c r="G116" t="n">
-        <v>1.080842535532557</v>
+        <v>0.8181067842697315</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5855500044954005</v>
+        <v>0.8917269815739948</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1278602418311746</v>
+        <v>0.09865263233517445</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.959378771860057</v>
+        <v>1.912069505902739</v>
       </c>
       <c r="B117" t="n">
-        <v>0.005994306252458816</v>
+        <v>0.01625382269347239</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1254944447747457</v>
+        <v>0.2419023277873388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03550685984914296</v>
+        <v>0.02846941882667325</v>
       </c>
       <c r="E117" t="n">
-        <v>0.07556604242885895</v>
+        <v>0.06926248918148108</v>
       </c>
       <c r="F117" t="n">
-        <v>1e-07</v>
+        <v>0.0030499164738058</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9178538077085283</v>
+        <v>0.7944641942623458</v>
       </c>
       <c r="H117" t="n">
-        <v>0.7644589984547772</v>
+        <v>0.8256381748150841</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1397414561438071</v>
+        <v>0.09076189630768532</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.002124773081211</v>
+        <v>1.878937489875776</v>
       </c>
       <c r="B118" t="n">
-        <v>2.651782601913582e-06</v>
+        <v>0.01089431876833643</v>
       </c>
       <c r="C118" t="n">
-        <v>0.05608317728252887</v>
+        <v>0.2261397362025863</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01588499588470772</v>
+        <v>0.02003606635688214</v>
       </c>
       <c r="E118" t="n">
-        <v>0.09792441512412912</v>
+        <v>0.07569132151199028</v>
       </c>
       <c r="F118" t="n">
-        <v>1e-07</v>
+        <v>0.003066364409381525</v>
       </c>
       <c r="G118" t="n">
-        <v>1.129756172163881</v>
+        <v>0.8419242747343776</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6344814405247631</v>
+        <v>0.8882747025126173</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05125722869011767</v>
+        <v>0.08423203140841171</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.975953973126637</v>
+        <v>1.874972515960569</v>
       </c>
       <c r="B119" t="n">
-        <v>0.006756927460963544</v>
+        <v>0.01080885044052633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1147465041144227</v>
+        <v>0.245532188159421</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0213032000343388</v>
+        <v>0.02271871886603991</v>
       </c>
       <c r="E119" t="n">
-        <v>0.06846936742220211</v>
+        <v>0.07209360618278228</v>
       </c>
       <c r="F119" t="n">
-        <v>1e-07</v>
+        <v>0.00304230810589902</v>
       </c>
       <c r="G119" t="n">
-        <v>0.88369325055107</v>
+        <v>0.9370567876371521</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8045022411255904</v>
+        <v>0.7581540630081364</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1476729838152978</v>
+        <v>0.1114282834512977</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.98848693021864</v>
+        <v>1.906836964064942</v>
       </c>
       <c r="B120" t="n">
-        <v>0.004320440932822388</v>
+        <v>0.005538713630985585</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0384955391065125</v>
+        <v>0.17354009519068</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0249726767469913</v>
+        <v>0.0407456532903124</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07915288579289245</v>
+        <v>0.0646493558746168</v>
       </c>
       <c r="F120" t="n">
-        <v>1e-07</v>
+        <v>3.117902957121557e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>1.027348198987277</v>
+        <v>0.8341244460733038</v>
       </c>
       <c r="H120" t="n">
-        <v>0.7768392907316248</v>
+        <v>0.9229251850887823</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07168053785131093</v>
+        <v>0.0642358338939925</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.763509839637726</v>
+        <v>1.826104783265689</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03556749007467432</v>
+        <v>0.0192716234660686</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4107413662406622</v>
+        <v>0.2889721497124953</v>
       </c>
       <c r="D121" t="n">
-        <v>1e-07</v>
+        <v>0.02893307519656156</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1024432997064551</v>
+        <v>0.07957187678672198</v>
       </c>
       <c r="F121" t="n">
-        <v>0.001569120250114347</v>
+        <v>0.003099587779332503</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6755186558754865</v>
+        <v>0.8292246343286394</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9888900255265523</v>
+        <v>0.8743732225593323</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03448257768367845</v>
+        <v>0.09224005543774712</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6371,11 +5771,6 @@
         </is>
       </c>
       <c r="L121" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -6383,31 +5778,31 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.860120077386592</v>
+        <v>1.869210786022855</v>
       </c>
       <c r="B122" t="n">
-        <v>0.02045551489309154</v>
+        <v>0.01367918669863995</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2699750285378221</v>
+        <v>0.2443014545225125</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005006230145877508</v>
+        <v>0.03450212567552271</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2616572866452037</v>
+        <v>0.07299069622093733</v>
       </c>
       <c r="F122" t="n">
-        <v>0.008517948265746976</v>
+        <v>3.080164781952661e-06</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6763059211869817</v>
+        <v>0.8240284504982417</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8412593156871826</v>
+        <v>0.8766868958023712</v>
       </c>
       <c r="I122" t="n">
-        <v>0.07727291125993617</v>
+        <v>0.0846111231472485</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6420,11 +5815,6 @@
         </is>
       </c>
       <c r="L122" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -6432,80 +5822,75 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.883593785281717</v>
+        <v>1.864991231744308</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01621637410532735</v>
+        <v>0.008237060620292825</v>
       </c>
       <c r="C123" t="n">
-        <v>0.32179331745136</v>
+        <v>0.2795923526030373</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0144859510916405</v>
+        <v>0.03174081155362801</v>
       </c>
       <c r="E123" t="n">
-        <v>0.09430678342031519</v>
+        <v>0.09767130210859626</v>
       </c>
       <c r="F123" t="n">
-        <v>3.042889507407909e-06</v>
+        <v>3.091253959803236e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7953115762348335</v>
+        <v>0.9140472260972221</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7432869406670951</v>
+        <v>0.7429786473571484</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1260773351102701</v>
+        <v>0.06368680443774495</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Diopside</t>
+          <t>Augite</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.760355761112533</v>
+        <v>1.868733253759869</v>
       </c>
       <c r="B124" t="n">
-        <v>0.04527617071540033</v>
+        <v>0.01367569204034413</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3856824551463502</v>
+        <v>0.2485239376554138</v>
       </c>
       <c r="D124" t="n">
-        <v>2.973884108541939e-06</v>
+        <v>0.02874442610457556</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2422180051676892</v>
+        <v>0.06993154704762519</v>
       </c>
       <c r="F124" t="n">
-        <v>3.185909129038307e-06</v>
+        <v>0.003079377884043824</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6504531799038429</v>
+        <v>0.7967186596164464</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8664826883680818</v>
+        <v>0.9037306617475377</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1021018668994067</v>
+        <v>0.0916386329278738</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6518,11 +5903,6 @@
         </is>
       </c>
       <c r="L124" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -6530,129 +5910,119 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.785497899560068</v>
+        <v>1.87784214530226</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0414425484455185</v>
+        <v>0.01095126995954857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4198146603897854</v>
+        <v>0.2616346457619246</v>
       </c>
       <c r="D125" t="n">
-        <v>1e-07</v>
+        <v>0.04028161398019215</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2571169913474975</v>
+        <v>0.09434788721013496</v>
       </c>
       <c r="F125" t="n">
-        <v>0.003783116040462247</v>
+        <v>3.082394150159108e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6736150334759913</v>
+        <v>0.8463255219693953</v>
       </c>
       <c r="H125" t="n">
-        <v>0.7006937184613851</v>
+        <v>0.7759420613110095</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1623765081576252</v>
+        <v>0.105840453957034</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.90086455590719</v>
+        <v>1.90649993756044</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01468508673088184</v>
+        <v>0.005516435703925563</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1095076332719336</v>
+        <v>0.2074104944116039</v>
       </c>
       <c r="D126" t="n">
-        <v>1e-07</v>
+        <v>0.02898697520833843</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3988685783360255</v>
+        <v>0.07358779647469769</v>
       </c>
       <c r="F126" t="n">
-        <v>0.009589328305706324</v>
+        <v>3.105362064183819e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7111906907766056</v>
+        <v>0.8362350019425405</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8457838477316967</v>
+        <v>0.8760021101446703</v>
       </c>
       <c r="I126" t="n">
-        <v>0.07418029028359815</v>
+        <v>0.07108607023476693</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Augite</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.86550973628681</v>
+        <v>1.855784920000233</v>
       </c>
       <c r="B127" t="n">
-        <v>0.009653902438035758</v>
+        <v>0.01382297048898407</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1115387709143131</v>
+        <v>0.2945107919496443</v>
       </c>
       <c r="D127" t="n">
-        <v>1e-07</v>
+        <v>0.03195938368995082</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5155158969650533</v>
+        <v>0.1014171281036399</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01188788649500631</v>
+        <v>3.112540812559631e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5996008034006912</v>
+        <v>0.8326899255240785</v>
       </c>
       <c r="H127" t="n">
-        <v>0.9392361703635204</v>
+        <v>0.7835309880430115</v>
       </c>
       <c r="I127" t="n">
-        <v>0.02099290945811611</v>
+        <v>0.1068756027012646</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6665,11 +6035,6 @@
         </is>
       </c>
       <c r="L127" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
         <is>
           <t>Diopside</t>
         </is>
@@ -6677,2206 +6042,45 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.030006547810372</v>
+        <v>1.873063023155057</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0005574696742809094</v>
+        <v>0.01098727842222301</v>
       </c>
       <c r="C128" t="n">
-        <v>0.196064297176941</v>
+        <v>0.219462963302567</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6883882485617073</v>
+        <v>0.02020703122704894</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1106179127450504</v>
+        <v>0.07023020989014159</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0003138158897080848</v>
+        <v>0.003092529255504323</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01933159294084419</v>
+        <v>0.8599942971426707</v>
       </c>
       <c r="H128" t="n">
-        <v>0.01786386753160848</v>
+        <v>0.9036782770346315</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9281319146310197</v>
+        <v>0.07079230933982288</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Jadeite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Jadeite</t>
+          <t>Diopside</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1.982261735781302</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0002836191357028432</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.1030823803159026</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.8754146491592093</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.1043589052994322</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.03034852825369712</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.01252186298233027</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.8398688988357229</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2.059416383883391</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0008316228656850503</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.1975956994243511</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.5873135612821105</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.10569763718428</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.001872578771809818</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0461416158371929</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.02171398736996457</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.045928953061717</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2.026224686671319</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.001647938434612095</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.3519686322269451</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.4704913799044247</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.1941837303951794</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.001546120772425944</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.03156647387627824</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.03872546589198543</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.8855293977521178</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>2.084782281529069</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.001693732550313522</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.181316933125484</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.6541487433046488</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.02102492126172191</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.000953451302781267</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.03468116029884936</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.02653439826379236</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.9603365451304089</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2.042206151843512</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.001116747970506733</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.1010341250380259</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.8215377910923048</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.0831756045949955</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.01438390726278735</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.01669998938918741</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.8289027890792334</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2.031784326579222</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0005626819834849893</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.09696536111992378</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.7776122554066769</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.06974352099172788</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0006335001002442825</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.01505237828128442</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.01482540145343065</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1.036871632279249</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Jadeite</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1.810622148648303</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.05062685833526837</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.3965627400176745</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.2989044336142332</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.005383206906291305</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.5027167506028459</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.7987398475555176</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.1471500628928796</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1.832640708213784</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.02562347869268504</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.3781117487333186</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0005791078756735976</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.2055150606190887</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.003101978759876878</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.7981984130038766</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.64981120857254</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.1129037084693108</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1.852051853888957</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.0225392684591311</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.3531024579465285</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.1998341484071658</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.002475709192304275</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.816461936404445</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.6463157829655657</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.1105112531423761</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1.814885837897584</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.04231058218939385</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.4090431987973328</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.2425981405343757</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.002820535699486818</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.6635587593184552</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.688219317144414</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.149219193895281</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1.829352739004922</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.02896164104180409</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.3917663119300042</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.2157687755731927</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.003448785552922978</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.7548910395769647</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.6555931467106164</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.1299045441753413</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1.869911765833926</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.01424000052985849</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.3427791247203443</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.003741315629147992</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.1908711079488603</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.004624679058329445</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.8975331807076615</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.5713681277510668</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.09457305133697107</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1.795828066738576</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.02093946152969425</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.3831503939898642</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.2461180270938407</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.003771978166697844</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.8232192607723692</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.6266603015683893</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.1820458187402702</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1.845095262305623</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.01741663438311325</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.3720298385738632</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.00145267353308603</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.2298747528254539</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.004979977109157988</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.8387011183915877</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.5870472437037234</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.1082986928643604</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1.841935763957088</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.02302105680032463</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.3706441240811328</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.2337127262397357</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.005620867493732803</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.8200197888893883</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.5980600095384982</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.1129432270208876</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1.881899773096124</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.02501845211040857</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.309198373035877</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.271935928533744</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.01439658338129419</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.7496946265280477</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.650074011120415</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.06734443627402688</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1.986881110906479</v>
-      </c>
-      <c r="B145" t="n">
-        <v>8.72758624280707e-05</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.005924847424725118</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.5446041836824826</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.06452422526585183</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.4173686324798311</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.9869300571958887</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.007497713402087726</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Hedenbergite</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Hedenbergite</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Hedenbergite</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Hedenbergite</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>2.174541843383925</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.008132926427489695</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.04482988337540841</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.0003165610031386113</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.006221395451488</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.001695652138729944</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0005968860448843092</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.002573985250960343</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.111685749846576</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2.080351248453707</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.01340461134258938</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.02286644847827466</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.0003130516857216716</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.7914174201057237</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.01173798189337222</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.206003920438936</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.4323023744290262</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.6725146665887087</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Aegirine-Augite</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Aegirine-Augite</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Aegirine-Augite</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>Aegirine-Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1.871929282147391</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.02611018637938598</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.1038006207438769</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.02980044375794255</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.1563618287098182</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.00442525944081766</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.9919429893943571</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.8384886303208509</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.02460151665574464</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1.906824917464263</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.03302347779582398</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.1627809850001597</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.007260545402725499</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.2009086534799035</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.004822478268274697</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.8167450411983638</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.8308351471507176</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.02385918755647892</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1.897105168260392</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.01873155228847807</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.08564404019576564</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.01385281198316093</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.1408240304273583</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.003124306802268056</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.9744107341523685</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.8876698563877712</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.02610470572820837</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1.917920957160239</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.006617328836100722</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.1014140958504774</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.4471997358978129</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.01360466490768461</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.6869897753504851</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.8309876234465137</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.04004096925821703</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1.88402601171756</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.01222357352748749</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.1701194699616856</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.005974947083978315</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.28145207549303</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.02432355246851265</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.7796041990670551</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.8384584710265267</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.03663158237518677</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1.951246935197464</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.01104776799920519</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.09896365484779053</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.3185386114828425</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.01817893649280774</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.7173797910405508</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.8597360000729993</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.02482245870591512</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1.920290814645743</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.008130683655447675</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.1014459749099002</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4881529500035121</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.01536563699212452</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.6421575206633501</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.8296056204514143</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.02993539309017071</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1.914224767520099</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.01473812355722681</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.1451936177183662</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.000893582054190601</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.2615238449654184</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.01595484289279869</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.7975089024448063</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.8278968574558305</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.03579240416543979</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1.895222464056856</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.01367663463364549</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.1178427473315457</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.2598087258204868</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.01360152307114132</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.7667364742394569</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.863537805322092</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.06976178016073785</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1.934323179047798</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.008817699763211138</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.06728704949390947</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.2840551473671332</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.01242536105578811</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.8353147744358095</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.8567926049898172</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.03958615443273005</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1.836979692521313</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.01799125996732384</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.1748443396201486</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.3014025205224926</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.01359528861027955</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.7371871287932847</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.9450182217924122</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.05186918739464642</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1.902008538263343</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.02477369360145855</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.1913769927436753</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.002394064409507539</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.3122239835937912</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.008976627813258559</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.7815011629091533</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.7239047962320836</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.0491702315394319</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1.869510694671955</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.04588730884181701</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.2183583476491449</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.2588023233700754</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.007103607624929315</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.7478884750238278</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.8005720086306956</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.04730516056797477</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1.917314594050415</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.02052551138883652</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.195135271379365</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.002659426363249766</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.2443776917032516</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.006014622925941646</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.778908859096572</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.7756619203911361</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.03913098925639854</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1.945106804850564</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.02861395190124351</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.1169982253852478</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.001804277890052158</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.2536371570392466</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.007731660268439249</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.8074138185976987</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.789367402190609</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.0294980817863764</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>2.010231845650146</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.000857481492426789</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.1253783228549145</v>
-      </c>
-      <c r="D163" t="n">
-        <v>3.003847181601542e-09</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.2859644203802635</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.0003218008439068728</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.6400152020784705</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.7323292624272889</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.2622463423935645</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Omphacite</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Omphacite</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Omphacite</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>Omphacite</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1.988848409373769</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.002467660169810417</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.1099622788293959</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.04783274051364372</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.06766464506514701</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.00185215688532932</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.855176810333258</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.7887982447013453</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.131435211198115</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>Diopside</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1.980986286431544</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.007683424196059311</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.1061829182979113</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.01989849381292683</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.1500817462248524</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.003089444927079545</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.8749055460021756</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0.7300378471599898</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.1449794947558273</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1.984729124339464</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.00137463234142351</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.07106592638760727</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.03669396210875565</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.07151520738205706</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.001857169239428596</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.9501045099094053</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.7948484200439071</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.09565468875841983</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1.989631583381412</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.002195143983277563</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.05459308919886116</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.02681824211435534</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0945585296085675</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.002780348351389548</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1.071143351845323</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.6928727550956096</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.06435323125686178</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1.994725697023753</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.009198119487184148</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.1072263629899229</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.006254853537220828</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.1726227433018412</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.003654980415151947</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1.036776024303691</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.5501993355465947</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.1164374115492005</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1.835348275576035</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.02444288758313216</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.3589919508381156</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.0005838135465625353</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.2053323962002671</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.003439903042183293</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.8498171281162755</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.6305650265831718</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.1037991463255039</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>Augite</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>2.179238568043248</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.002744115346762415</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.06687269306221179</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.8081978816358982</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.0003432760715207082</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.04773042378304122</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.001302725253783073</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.356302573764838</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>2.085064755522257</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.007215600704286</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.09583854063958468</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.9687088476945119</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.001766031065678613</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.05905771060973678</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.01742532903877064</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.248383136777395</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>2.207685770230993</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.04242254584839156</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.9630642304920186</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.115860820546817</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>Aegirine</t>
+          <t>Diopside</t>
         </is>
       </c>
     </row>
